--- a/JupyterNotebooks/AvgHW/O554F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9641418518803565</v>
+      </c>
+      <c r="D3">
+        <v>0.9806445025432544</v>
+      </c>
+      <c r="E3">
         <v>1.061305434390841</v>
       </c>
-      <c r="D3">
-        <v>0.961359392625763</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>1.017132792480926</v>
+      </c>
+      <c r="G3">
+        <v>0.9613593926257629</v>
+      </c>
+      <c r="H3">
         <v>1.012092100429928</v>
       </c>
-      <c r="F3">
+      <c r="I3">
+        <v>0.9613593926257629</v>
+      </c>
+      <c r="J3">
         <v>1.061305434390841</v>
-      </c>
-      <c r="G3">
-        <v>0.9806445025432544</v>
-      </c>
-      <c r="H3">
-        <v>0.9641418518803565</v>
-      </c>
-      <c r="I3">
-        <v>1.017132792480926</v>
-      </c>
-      <c r="J3">
-        <v>0.961359392625763</v>
       </c>
       <c r="K3">
         <v>1.061305434390841</v>
@@ -704,13 +656,13 @@
         <v>1.012092100429928</v>
       </c>
       <c r="M3">
-        <v>0.9867257465278454</v>
+        <v>0.9867257465278453</v>
       </c>
       <c r="N3">
-        <v>0.9867257465278454</v>
+        <v>0.9867257465278453</v>
       </c>
       <c r="O3">
-        <v>0.9791977816453491</v>
+        <v>0.979197781645349</v>
       </c>
       <c r="P3">
         <v>1.011585642482177</v>
@@ -728,7 +680,7 @@
         <v>0.9994460123918448</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,31 +688,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.114178441069081</v>
+        <v>0.931090027179191</v>
       </c>
       <c r="D4">
+        <v>0.9695121302760342</v>
+      </c>
+      <c r="E4">
+        <v>1.114178441069082</v>
+      </c>
+      <c r="F4">
+        <v>1.032699900549426</v>
+      </c>
+      <c r="G4">
         <v>0.9226773065079716</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>1.022547077055109</v>
       </c>
-      <c r="F4">
-        <v>1.114178441069081</v>
-      </c>
-      <c r="G4">
-        <v>0.9695121302760342</v>
-      </c>
-      <c r="H4">
-        <v>0.9310900271791913</v>
-      </c>
       <c r="I4">
-        <v>1.032699900549426</v>
+        <v>0.9226773065079716</v>
       </c>
       <c r="J4">
-        <v>0.9226773065079716</v>
+        <v>1.114178441069082</v>
       </c>
       <c r="K4">
-        <v>1.114178441069081</v>
+        <v>1.114178441069082</v>
       </c>
       <c r="L4">
         <v>1.022547077055109</v>
@@ -772,7 +724,7 @@
         <v>0.9726121917815402</v>
       </c>
       <c r="O4">
-        <v>0.958771470247424</v>
+        <v>0.9587714702474238</v>
       </c>
       <c r="P4">
         <v>1.019800941544054</v>
@@ -787,10 +739,10 @@
         <v>1.043395316425311</v>
       </c>
       <c r="T4">
-        <v>0.9987841471061355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9987841471061357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.8696030663171523</v>
+      </c>
+      <c r="D5">
+        <v>0.9479631414504552</v>
+      </c>
+      <c r="E5">
         <v>1.22565920466436</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.063541187376979</v>
+      </c>
+      <c r="G5">
         <v>0.8556240651348643</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.044770194952162</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <v>0.8556240651348643</v>
+      </c>
+      <c r="J5">
         <v>1.22565920466436</v>
-      </c>
-      <c r="G5">
-        <v>0.9479631414504552</v>
-      </c>
-      <c r="H5">
-        <v>0.8696030663171523</v>
-      </c>
-      <c r="I5">
-        <v>1.063541187376979</v>
-      </c>
-      <c r="J5">
-        <v>0.8556240651348643</v>
       </c>
       <c r="K5">
         <v>1.22565920466436</v>
@@ -852,7 +804,7 @@
         <v>1.001193476649329</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.8207716909490552</v>
+      </c>
+      <c r="D6">
+        <v>0.8809138558080087</v>
+      </c>
+      <c r="E6">
         <v>1.399948354779962</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1.082577722370668</v>
+      </c>
+      <c r="G6">
         <v>0.7835818148066434</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>1.145433046714429</v>
       </c>
-      <c r="F6">
+      <c r="I6">
+        <v>0.7835818148066434</v>
+      </c>
+      <c r="J6">
         <v>1.399948354779962</v>
-      </c>
-      <c r="G6">
-        <v>0.8809138558080087</v>
-      </c>
-      <c r="H6">
-        <v>0.8207716909490552</v>
-      </c>
-      <c r="I6">
-        <v>1.082577722370668</v>
-      </c>
-      <c r="J6">
-        <v>0.7835818148066434</v>
       </c>
       <c r="K6">
         <v>1.399948354779962</v>
@@ -890,13 +842,13 @@
         <v>1.145433046714429</v>
       </c>
       <c r="M6">
-        <v>0.9645074307605362</v>
+        <v>0.964507430760536</v>
       </c>
       <c r="N6">
-        <v>0.9645074307605362</v>
+        <v>0.964507430760536</v>
       </c>
       <c r="O6">
-        <v>0.9165955174900425</v>
+        <v>0.9165955174900424</v>
       </c>
       <c r="P6">
         <v>1.109654405433678</v>
@@ -911,10 +863,10 @@
         <v>1.182227892770249</v>
       </c>
       <c r="T6">
-        <v>1.018871080904795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.018871080904794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +874,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.998788572747381</v>
+        <v>0.9987077797664132</v>
       </c>
       <c r="D7">
-        <v>0.9987877350320561</v>
+        <v>1.008059194881486</v>
       </c>
       <c r="E7">
-        <v>1.000463486292424</v>
+        <v>0.9987885727473801</v>
       </c>
       <c r="F7">
-        <v>0.998788572747381</v>
+        <v>0.9997652167074776</v>
       </c>
       <c r="G7">
-        <v>1.008059194881486</v>
+        <v>0.9987877350320566</v>
       </c>
       <c r="H7">
-        <v>0.9987077797664125</v>
+        <v>1.000463486292423</v>
       </c>
       <c r="I7">
-        <v>0.9997652167074775</v>
+        <v>0.9987877350320566</v>
       </c>
       <c r="J7">
-        <v>0.9987877350320561</v>
+        <v>0.9987885727473801</v>
       </c>
       <c r="K7">
-        <v>0.998788572747381</v>
+        <v>0.9987885727473801</v>
       </c>
       <c r="L7">
-        <v>1.000463486292424</v>
+        <v>1.000463486292423</v>
       </c>
       <c r="M7">
-        <v>0.9996256106622401</v>
+        <v>0.9996256106622399</v>
       </c>
       <c r="N7">
-        <v>0.9996256106622401</v>
+        <v>0.9996256106622399</v>
       </c>
       <c r="O7">
-        <v>0.9993196670302975</v>
+        <v>0.9993196670302976</v>
       </c>
       <c r="P7">
-        <v>0.9993465980239536</v>
+        <v>0.9993465980239532</v>
       </c>
       <c r="Q7">
-        <v>0.9993465980239536</v>
+        <v>0.9993465980239532</v>
       </c>
       <c r="R7">
-        <v>0.9992070917048105</v>
+        <v>0.9992070917048099</v>
       </c>
       <c r="S7">
-        <v>0.9992070917048105</v>
+        <v>0.9992070917048099</v>
       </c>
       <c r="T7">
         <v>1.000761997571206</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9967827858611289</v>
+        <v>0.9972066739521841</v>
       </c>
       <c r="D8">
+        <v>1.018506802121561</v>
+      </c>
+      <c r="E8">
+        <v>0.9967827858611295</v>
+      </c>
+      <c r="F8">
+        <v>0.9995421388781625</v>
+      </c>
+      <c r="G8">
         <v>0.9953568005716266</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>1.001576968318909</v>
       </c>
-      <c r="F8">
-        <v>0.9967827858611289</v>
-      </c>
-      <c r="G8">
-        <v>1.018506802121561</v>
-      </c>
-      <c r="H8">
-        <v>0.9972066739521848</v>
-      </c>
       <c r="I8">
-        <v>0.9995421388781618</v>
+        <v>0.9953568005716266</v>
       </c>
       <c r="J8">
-        <v>0.9953568005716266</v>
+        <v>0.9967827858611295</v>
       </c>
       <c r="K8">
-        <v>0.9967827858611289</v>
+        <v>0.9967827858611295</v>
       </c>
       <c r="L8">
         <v>1.001576968318909</v>
       </c>
       <c r="M8">
-        <v>0.9984668844452675</v>
+        <v>0.9984668844452678</v>
       </c>
       <c r="N8">
-        <v>0.9984668844452675</v>
+        <v>0.9984668844452678</v>
       </c>
       <c r="O8">
         <v>0.9980468142809066</v>
       </c>
       <c r="P8">
-        <v>0.9979055182505547</v>
+        <v>0.9979055182505551</v>
       </c>
       <c r="Q8">
-        <v>0.9979055182505547</v>
+        <v>0.9979055182505551</v>
       </c>
       <c r="R8">
-        <v>0.9976248351531982</v>
+        <v>0.9976248351531987</v>
       </c>
       <c r="S8">
-        <v>0.9976248351531982</v>
+        <v>0.9976248351531987</v>
       </c>
       <c r="T8">
         <v>1.001495361617262</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9948045873335183</v>
+      </c>
+      <c r="D9">
+        <v>1.022715468865872</v>
+      </c>
+      <c r="E9">
         <v>0.9956005731166889</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.000049217535798</v>
+      </c>
+      <c r="G9">
         <v>0.9953917749823895</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>1.004383107445663</v>
       </c>
-      <c r="F9">
+      <c r="I9">
+        <v>0.9953917749823895</v>
+      </c>
+      <c r="J9">
         <v>0.9956005731166889</v>
-      </c>
-      <c r="G9">
-        <v>1.022715468865872</v>
-      </c>
-      <c r="H9">
-        <v>0.9948045873335183</v>
-      </c>
-      <c r="I9">
-        <v>1.000049217535798</v>
-      </c>
-      <c r="J9">
-        <v>0.9953917749823895</v>
       </c>
       <c r="K9">
         <v>0.9956005731166889</v>
@@ -1100,7 +1052,7 @@
         <v>1.002157454879988</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,31 +1060,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9905088133340177</v>
+        <v>0.9893101908884733</v>
       </c>
       <c r="D10">
+        <v>1.052731286477841</v>
+      </c>
+      <c r="E10">
+        <v>0.9905088133340176</v>
+      </c>
+      <c r="F10">
+        <v>0.9994594322174805</v>
+      </c>
+      <c r="G10">
         <v>0.9890792476462749</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.006858216041362</v>
       </c>
-      <c r="F10">
-        <v>0.9905088133340177</v>
-      </c>
-      <c r="G10">
-        <v>1.052731286477841</v>
-      </c>
-      <c r="H10">
-        <v>0.9893101908884733</v>
-      </c>
       <c r="I10">
-        <v>0.9994594322174805</v>
+        <v>0.9890792476462749</v>
       </c>
       <c r="J10">
-        <v>0.9890792476462749</v>
+        <v>0.9905088133340176</v>
       </c>
       <c r="K10">
-        <v>0.9905088133340177</v>
+        <v>0.9905088133340176</v>
       </c>
       <c r="L10">
         <v>1.006858216041362</v>
@@ -1162,7 +1114,7 @@
         <v>1.004657864434242</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9826872737276051</v>
+      </c>
+      <c r="D11">
+        <v>1.080319691980833</v>
+      </c>
+      <c r="E11">
         <v>0.9852429607364324</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>0.9994645463837435</v>
+      </c>
+      <c r="G11">
         <v>0.9808029587378355</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.014628120218563</v>
       </c>
-      <c r="F11">
+      <c r="I11">
+        <v>0.9808029587378355</v>
+      </c>
+      <c r="J11">
         <v>0.9852429607364324</v>
-      </c>
-      <c r="G11">
-        <v>1.080319691980833</v>
-      </c>
-      <c r="H11">
-        <v>0.9826872737276051</v>
-      </c>
-      <c r="I11">
-        <v>0.9994645463837433</v>
-      </c>
-      <c r="J11">
-        <v>0.9808029587378355</v>
       </c>
       <c r="K11">
         <v>0.9852429607364324</v>
@@ -1224,7 +1176,7 @@
         <v>1.007190925297502</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.059500420431431</v>
+      </c>
+      <c r="D12">
+        <v>0.113304783278639</v>
+      </c>
+      <c r="E12">
         <v>1.641395764440468</v>
       </c>
-      <c r="D12">
-        <v>0.9738893827414491</v>
-      </c>
-      <c r="E12">
-        <v>0.5353156617967509</v>
-      </c>
       <c r="F12">
+        <v>0.9548772783263109</v>
+      </c>
+      <c r="G12">
+        <v>0.973889382741449</v>
+      </c>
+      <c r="H12">
+        <v>0.5353156617967508</v>
+      </c>
+      <c r="I12">
+        <v>0.973889382741449</v>
+      </c>
+      <c r="J12">
         <v>1.641395764440468</v>
-      </c>
-      <c r="G12">
-        <v>0.1133047832786392</v>
-      </c>
-      <c r="H12">
-        <v>1.059500420431431</v>
-      </c>
-      <c r="I12">
-        <v>0.9548772783263109</v>
-      </c>
-      <c r="J12">
-        <v>0.9738893827414491</v>
       </c>
       <c r="K12">
         <v>1.641395764440468</v>
       </c>
       <c r="L12">
-        <v>0.5353156617967509</v>
+        <v>0.5353156617967508</v>
       </c>
       <c r="M12">
         <v>0.7546025222691</v>
@@ -1268,7 +1220,7 @@
         <v>0.7546025222691</v>
       </c>
       <c r="O12">
-        <v>0.8562351549898768</v>
+        <v>0.8562351549898769</v>
       </c>
       <c r="P12">
         <v>1.050200269659556</v>
@@ -1283,10 +1235,10 @@
         <v>1.197999143354784</v>
       </c>
       <c r="T12">
-        <v>0.8797138818358415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.8797138818358414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6424090400447209</v>
+        <v>1.071108989185448</v>
       </c>
       <c r="D13">
+        <v>1.023986395512487</v>
+      </c>
+      <c r="E13">
+        <v>0.6424090400447208</v>
+      </c>
+      <c r="F13">
+        <v>1.021615997070116</v>
+      </c>
+      <c r="G13">
         <v>1.182788715270982</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>1.305247984152944</v>
       </c>
-      <c r="F13">
-        <v>0.6424090400447209</v>
-      </c>
-      <c r="G13">
-        <v>1.023986395512487</v>
-      </c>
-      <c r="H13">
-        <v>1.071108989185448</v>
-      </c>
       <c r="I13">
-        <v>1.021615997070116</v>
+        <v>1.182788715270982</v>
       </c>
       <c r="J13">
-        <v>1.182788715270982</v>
+        <v>0.6424090400447208</v>
       </c>
       <c r="K13">
-        <v>0.6424090400447209</v>
+        <v>0.6424090400447208</v>
       </c>
       <c r="L13">
         <v>1.305247984152944</v>
@@ -1339,16 +1291,16 @@
         <v>1.043481913156216</v>
       </c>
       <c r="R13">
-        <v>0.9432136948783421</v>
+        <v>0.9432136948783419</v>
       </c>
       <c r="S13">
-        <v>0.9432136948783421</v>
+        <v>0.9432136948783419</v>
       </c>
       <c r="T13">
         <v>1.04119285353945</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1308,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8792445411765468</v>
+        <v>1.521176470293142</v>
       </c>
       <c r="D14">
+        <v>0.05789578805400999</v>
+      </c>
+      <c r="E14">
+        <v>0.8792445411765465</v>
+      </c>
+      <c r="F14">
+        <v>0.8088994013775033</v>
+      </c>
+      <c r="G14">
         <v>1.119667219287633</v>
       </c>
-      <c r="E14">
-        <v>0.7809792423425446</v>
-      </c>
-      <c r="F14">
-        <v>0.8792445411765468</v>
-      </c>
-      <c r="G14">
-        <v>0.05789578805401007</v>
-      </c>
       <c r="H14">
-        <v>1.521176470293142</v>
+        <v>0.7809792423425447</v>
       </c>
       <c r="I14">
-        <v>0.8088994013775033</v>
+        <v>1.119667219287633</v>
       </c>
       <c r="J14">
-        <v>1.119667219287633</v>
+        <v>0.8792445411765465</v>
       </c>
       <c r="K14">
-        <v>0.8792445411765468</v>
+        <v>0.8792445411765465</v>
       </c>
       <c r="L14">
-        <v>0.7809792423425446</v>
+        <v>0.7809792423425447</v>
       </c>
       <c r="M14">
-        <v>0.9503232308150887</v>
+        <v>0.9503232308150886</v>
       </c>
       <c r="N14">
-        <v>0.9503232308150887</v>
+        <v>0.9503232308150886</v>
       </c>
       <c r="O14">
         <v>1.14060764397444</v>
       </c>
       <c r="P14">
-        <v>0.9266303342689081</v>
+        <v>0.926630334268908</v>
       </c>
       <c r="Q14">
-        <v>0.9266303342689081</v>
+        <v>0.926630334268908</v>
       </c>
       <c r="R14">
-        <v>0.9147838859958177</v>
+        <v>0.9147838859958176</v>
       </c>
       <c r="S14">
-        <v>0.9147838859958177</v>
+        <v>0.9147838859958176</v>
       </c>
       <c r="T14">
         <v>0.8613104437552299</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9972955378836347</v>
+      </c>
+      <c r="D15">
+        <v>0.8260958226737389</v>
+      </c>
+      <c r="E15">
         <v>1.086395609963157</v>
       </c>
-      <c r="D15">
-        <v>2.080174568926315</v>
-      </c>
-      <c r="E15">
+      <c r="F15">
+        <v>0.9654369733219197</v>
+      </c>
+      <c r="G15">
+        <v>2.080174568926314</v>
+      </c>
+      <c r="H15">
         <v>0.9445203895218965</v>
       </c>
-      <c r="F15">
+      <c r="I15">
+        <v>2.080174568926314</v>
+      </c>
+      <c r="J15">
         <v>1.086395609963157</v>
-      </c>
-      <c r="G15">
-        <v>0.8260958226737389</v>
-      </c>
-      <c r="H15">
-        <v>0.9972955378836347</v>
-      </c>
-      <c r="I15">
-        <v>0.9654369733219197</v>
-      </c>
-      <c r="J15">
-        <v>2.080174568926315</v>
       </c>
       <c r="K15">
         <v>1.086395609963157</v>
@@ -1448,16 +1400,16 @@
         <v>0.9445203895218965</v>
       </c>
       <c r="M15">
-        <v>1.512347479224106</v>
+        <v>1.512347479224105</v>
       </c>
       <c r="N15">
-        <v>1.512347479224106</v>
+        <v>1.512347479224105</v>
       </c>
       <c r="O15">
         <v>1.340663498777282</v>
       </c>
       <c r="P15">
-        <v>1.37036352280379</v>
+        <v>1.370363522803789</v>
       </c>
       <c r="Q15">
         <v>1.370363522803789</v>
@@ -1472,7 +1424,7 @@
         <v>1.14998648371511</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.012176632781168</v>
+        <v>0.3524289094047066</v>
       </c>
       <c r="D16">
-        <v>1.00150587474776</v>
+        <v>0.754573258017139</v>
       </c>
       <c r="E16">
-        <v>0.9941506556765687</v>
+        <v>2.049344331726096</v>
       </c>
       <c r="F16">
-        <v>1.012176632781168</v>
+        <v>1.318120607988505</v>
       </c>
       <c r="G16">
-        <v>1.004480210937239</v>
+        <v>0.2009261821066353</v>
       </c>
       <c r="H16">
-        <v>1.00020374834734</v>
+        <v>1.200265218613977</v>
       </c>
       <c r="I16">
-        <v>0.9964799589350458</v>
+        <v>0.2009261821066353</v>
       </c>
       <c r="J16">
-        <v>1.00150587474776</v>
+        <v>2.049344331726096</v>
       </c>
       <c r="K16">
-        <v>1.012176632781168</v>
+        <v>2.049344331726096</v>
       </c>
       <c r="L16">
-        <v>0.9941506556765687</v>
+        <v>1.200265218613977</v>
       </c>
       <c r="M16">
-        <v>0.9978282652121645</v>
+        <v>0.7005957003603062</v>
       </c>
       <c r="N16">
-        <v>0.9978282652121645</v>
+        <v>0.7005957003603062</v>
       </c>
       <c r="O16">
-        <v>0.9986200929238898</v>
+        <v>0.5845401033751063</v>
       </c>
       <c r="P16">
-        <v>1.002611054401832</v>
+        <v>1.150178577482236</v>
       </c>
       <c r="Q16">
-        <v>1.002611054401832</v>
+        <v>1.150178577482236</v>
       </c>
       <c r="R16">
-        <v>1.005002448996666</v>
+        <v>1.374970016043201</v>
       </c>
       <c r="S16">
-        <v>1.005002448996666</v>
+        <v>1.374970016043201</v>
       </c>
       <c r="T16">
-        <v>1.001499513570854</v>
+        <v>0.9792764179761767</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9773239618550705</v>
+        <v>0.5092015161683993</v>
       </c>
       <c r="D17">
-        <v>1.001667525785066</v>
+        <v>1.084555328126569</v>
       </c>
       <c r="E17">
-        <v>1.007199986659709</v>
+        <v>1.667833054879367</v>
       </c>
       <c r="F17">
-        <v>0.9773239618550705</v>
+        <v>1.218705497987602</v>
       </c>
       <c r="G17">
-        <v>1.009431322878932</v>
+        <v>0.3972901217784927</v>
       </c>
       <c r="H17">
-        <v>0.9975400308108801</v>
+        <v>1.161253170218031</v>
       </c>
       <c r="I17">
-        <v>1.003847067411719</v>
+        <v>0.3972901217784927</v>
       </c>
       <c r="J17">
-        <v>1.001667525785066</v>
+        <v>1.667833054879367</v>
       </c>
       <c r="K17">
-        <v>0.9773239618550705</v>
+        <v>1.667833054879367</v>
       </c>
       <c r="L17">
-        <v>1.007199986659709</v>
+        <v>1.161253170218031</v>
       </c>
       <c r="M17">
-        <v>1.004433756222388</v>
+        <v>0.7792716459982618</v>
       </c>
       <c r="N17">
-        <v>1.004433756222388</v>
+        <v>0.7792716459982618</v>
       </c>
       <c r="O17">
-        <v>1.002135847751885</v>
+        <v>0.6892482693883076</v>
       </c>
       <c r="P17">
-        <v>0.9953971580999484</v>
+        <v>1.075458782291963</v>
       </c>
       <c r="Q17">
-        <v>0.9953971580999484</v>
+        <v>1.075458782291963</v>
       </c>
       <c r="R17">
-        <v>0.990878859038729</v>
+        <v>1.223552350438814</v>
       </c>
       <c r="S17">
-        <v>0.990878859038729</v>
+        <v>1.223552350438814</v>
       </c>
       <c r="T17">
-        <v>0.9995016492335628</v>
+        <v>1.006473114859743</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.069233414859169</v>
+        <v>0.8225224037468081</v>
       </c>
       <c r="D18">
-        <v>0.9857850258206797</v>
+        <v>1.731412346294676</v>
       </c>
       <c r="E18">
-        <v>0.9953769325373888</v>
+        <v>0.9081107321289154</v>
       </c>
       <c r="F18">
-        <v>1.069233414859169</v>
+        <v>1.021334386353259</v>
       </c>
       <c r="G18">
-        <v>1.006854354290904</v>
+        <v>0.7893058227192753</v>
       </c>
       <c r="H18">
-        <v>0.9865029385022321</v>
+        <v>1.084732143663276</v>
       </c>
       <c r="I18">
-        <v>0.9879419183270389</v>
+        <v>0.7893058227192753</v>
       </c>
       <c r="J18">
-        <v>0.9857850258206797</v>
+        <v>0.9081107321289154</v>
       </c>
       <c r="K18">
-        <v>1.069233414859169</v>
+        <v>0.9081107321289154</v>
       </c>
       <c r="L18">
-        <v>0.9953769325373888</v>
+        <v>1.084732143663276</v>
       </c>
       <c r="M18">
-        <v>0.9905809791790343</v>
+        <v>0.9370189831912759</v>
       </c>
       <c r="N18">
-        <v>0.9905809791790343</v>
+        <v>0.9370189831912759</v>
       </c>
       <c r="O18">
-        <v>0.989221632286767</v>
+        <v>0.8988534567097867</v>
       </c>
       <c r="P18">
-        <v>1.016798457739079</v>
+        <v>0.9273828995038224</v>
       </c>
       <c r="Q18">
-        <v>1.016798457739079</v>
+        <v>0.9273828995038222</v>
       </c>
       <c r="R18">
-        <v>1.029907197019102</v>
+        <v>0.9225648576600955</v>
       </c>
       <c r="S18">
-        <v>1.029907197019102</v>
+        <v>0.9225648576600955</v>
       </c>
       <c r="T18">
-        <v>1.005282430722902</v>
+        <v>1.059569639151035</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.7984232216693862</v>
+      </c>
+      <c r="D19">
+        <v>1.967593185857949</v>
+      </c>
+      <c r="E19">
+        <v>0.8579125981852963</v>
+      </c>
+      <c r="F19">
+        <v>0.9989717949128551</v>
+      </c>
+      <c r="G19">
+        <v>0.896965680157764</v>
+      </c>
+      <c r="H19">
+        <v>1.070460223172512</v>
+      </c>
+      <c r="I19">
+        <v>0.896965680157764</v>
+      </c>
+      <c r="J19">
+        <v>0.8579125981852963</v>
+      </c>
+      <c r="K19">
+        <v>0.8579125981852963</v>
+      </c>
+      <c r="L19">
+        <v>1.070460223172512</v>
+      </c>
+      <c r="M19">
+        <v>0.9837129516651382</v>
+      </c>
+      <c r="N19">
+        <v>0.9837129516651382</v>
+      </c>
+      <c r="O19">
+        <v>0.9219497083332208</v>
+      </c>
+      <c r="P19">
+        <v>0.9417795005051909</v>
+      </c>
+      <c r="Q19">
+        <v>0.9417795005051909</v>
+      </c>
+      <c r="R19">
+        <v>0.9208127749252172</v>
+      </c>
+      <c r="S19">
+        <v>0.9208127749252172</v>
+      </c>
+      <c r="T19">
+        <v>1.098387783992627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.00020374834734</v>
+      </c>
+      <c r="D20">
+        <v>1.004480210937239</v>
+      </c>
+      <c r="E20">
+        <v>1.012176632781169</v>
+      </c>
+      <c r="F20">
+        <v>0.9964799589350459</v>
+      </c>
+      <c r="G20">
+        <v>1.001505874747759</v>
+      </c>
+      <c r="H20">
+        <v>0.9941506556765689</v>
+      </c>
+      <c r="I20">
+        <v>1.001505874747759</v>
+      </c>
+      <c r="J20">
+        <v>1.012176632781169</v>
+      </c>
+      <c r="K20">
+        <v>1.012176632781169</v>
+      </c>
+      <c r="L20">
+        <v>0.9941506556765689</v>
+      </c>
+      <c r="M20">
+        <v>0.9978282652121642</v>
+      </c>
+      <c r="N20">
+        <v>0.9978282652121642</v>
+      </c>
+      <c r="O20">
+        <v>0.9986200929238894</v>
+      </c>
+      <c r="P20">
+        <v>1.002611054401832</v>
+      </c>
+      <c r="Q20">
+        <v>1.002611054401833</v>
+      </c>
+      <c r="R20">
+        <v>1.005002448996666</v>
+      </c>
+      <c r="S20">
+        <v>1.005002448996666</v>
+      </c>
+      <c r="T20">
+        <v>1.001499513570854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9975400308108802</v>
+      </c>
+      <c r="D21">
+        <v>1.009431322878932</v>
+      </c>
+      <c r="E21">
+        <v>0.9773239618550722</v>
+      </c>
+      <c r="F21">
+        <v>1.003847067411719</v>
+      </c>
+      <c r="G21">
+        <v>1.001667525785065</v>
+      </c>
+      <c r="H21">
+        <v>1.00719998665971</v>
+      </c>
+      <c r="I21">
+        <v>1.001667525785065</v>
+      </c>
+      <c r="J21">
+        <v>0.9773239618550722</v>
+      </c>
+      <c r="K21">
+        <v>0.9773239618550722</v>
+      </c>
+      <c r="L21">
+        <v>1.00719998665971</v>
+      </c>
+      <c r="M21">
+        <v>1.004433756222388</v>
+      </c>
+      <c r="N21">
+        <v>1.004433756222388</v>
+      </c>
+      <c r="O21">
+        <v>1.002135847751885</v>
+      </c>
+      <c r="P21">
+        <v>0.9953971580999493</v>
+      </c>
+      <c r="Q21">
+        <v>0.9953971580999493</v>
+      </c>
+      <c r="R21">
+        <v>0.9908788590387301</v>
+      </c>
+      <c r="S21">
+        <v>0.9908788590387301</v>
+      </c>
+      <c r="T21">
+        <v>0.9995016492335633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9865029385022321</v>
+      </c>
+      <c r="D22">
+        <v>1.006854354290903</v>
+      </c>
+      <c r="E22">
+        <v>1.06923341485917</v>
+      </c>
+      <c r="F22">
+        <v>0.9879419183270389</v>
+      </c>
+      <c r="G22">
+        <v>0.985785025820679</v>
+      </c>
+      <c r="H22">
+        <v>0.9953769325373885</v>
+      </c>
+      <c r="I22">
+        <v>0.985785025820679</v>
+      </c>
+      <c r="J22">
+        <v>1.06923341485917</v>
+      </c>
+      <c r="K22">
+        <v>1.06923341485917</v>
+      </c>
+      <c r="L22">
+        <v>0.9953769325373885</v>
+      </c>
+      <c r="M22">
+        <v>0.9905809791790336</v>
+      </c>
+      <c r="N22">
+        <v>0.9905809791790336</v>
+      </c>
+      <c r="O22">
+        <v>0.9892216322867665</v>
+      </c>
+      <c r="P22">
+        <v>1.016798457739079</v>
+      </c>
+      <c r="Q22">
+        <v>1.016798457739079</v>
+      </c>
+      <c r="R22">
+        <v>1.029907197019102</v>
+      </c>
+      <c r="S22">
+        <v>1.029907197019102</v>
+      </c>
+      <c r="T22">
+        <v>1.005282430722902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9724044151986779</v>
+      </c>
+      <c r="D23">
+        <v>0.9743350233179975</v>
+      </c>
+      <c r="E23">
         <v>1.21638310321099</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.9772238963891224</v>
+      </c>
+      <c r="G23">
         <v>0.9730269157093803</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>0.9343433287167735</v>
       </c>
-      <c r="F19">
+      <c r="I23">
+        <v>0.9730269157093803</v>
+      </c>
+      <c r="J23">
         <v>1.21638310321099</v>
       </c>
-      <c r="G19">
-        <v>0.9743350233179975</v>
-      </c>
-      <c r="H19">
-        <v>0.9724044151986779</v>
-      </c>
-      <c r="I19">
-        <v>0.9772238963891224</v>
-      </c>
-      <c r="J19">
-        <v>0.9730269157093803</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.21638310321099</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9343433287167735</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9536851222130769</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9536851222130769</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9599248865416105</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.041251115879048</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.041251115879048</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.085034112712033</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.085034112712033</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.007952780423824</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/O554F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9641418518803565</v>
+        <v>0.7856436992529879</v>
       </c>
       <c r="D3">
-        <v>0.9806445025432544</v>
+        <v>1.907585893369175</v>
       </c>
       <c r="E3">
-        <v>1.061305434390841</v>
+        <v>0.918231362664629</v>
       </c>
       <c r="F3">
-        <v>1.017132792480926</v>
+        <v>1.015554440670027</v>
       </c>
       <c r="G3">
-        <v>0.9613593926257629</v>
+        <v>0.7667114344875893</v>
       </c>
       <c r="H3">
-        <v>1.012092100429928</v>
+        <v>1.08478847159366</v>
       </c>
       <c r="I3">
-        <v>0.9613593926257629</v>
+        <v>0.7667114344875893</v>
       </c>
       <c r="J3">
-        <v>1.061305434390841</v>
+        <v>0.918231362664629</v>
       </c>
       <c r="K3">
-        <v>1.061305434390841</v>
+        <v>0.918231362664629</v>
       </c>
       <c r="L3">
-        <v>1.012092100429928</v>
+        <v>1.08478847159366</v>
       </c>
       <c r="M3">
-        <v>0.9867257465278453</v>
+        <v>0.9257499530406246</v>
       </c>
       <c r="N3">
-        <v>0.9867257465278453</v>
+        <v>0.9257499530406246</v>
       </c>
       <c r="O3">
-        <v>0.979197781645349</v>
+        <v>0.8790478684447457</v>
       </c>
       <c r="P3">
-        <v>1.011585642482177</v>
+        <v>0.9232437562486261</v>
       </c>
       <c r="Q3">
-        <v>1.011585642482177</v>
+        <v>0.9232437562486261</v>
       </c>
       <c r="R3">
-        <v>1.024015590459343</v>
+        <v>0.9219906578526268</v>
       </c>
       <c r="S3">
-        <v>1.024015590459343</v>
+        <v>0.9219906578526268</v>
       </c>
       <c r="T3">
-        <v>0.9994460123918448</v>
+        <v>1.079752550339678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.931090027179191</v>
+        <v>0.8062611455920572</v>
       </c>
       <c r="D4">
-        <v>0.9695121302760342</v>
+        <v>1.819602770184548</v>
       </c>
       <c r="E4">
-        <v>1.114178441069082</v>
+        <v>0.9110890222721946</v>
       </c>
       <c r="F4">
-        <v>1.032699900549426</v>
+        <v>1.017516357139395</v>
       </c>
       <c r="G4">
-        <v>0.9226773065079716</v>
+        <v>0.7810679329004141</v>
       </c>
       <c r="H4">
-        <v>1.022547077055109</v>
+        <v>1.082809336409239</v>
       </c>
       <c r="I4">
-        <v>0.9226773065079716</v>
+        <v>0.7810679329004141</v>
       </c>
       <c r="J4">
-        <v>1.114178441069082</v>
+        <v>0.9110890222721946</v>
       </c>
       <c r="K4">
-        <v>1.114178441069082</v>
+        <v>0.9110890222721946</v>
       </c>
       <c r="L4">
-        <v>1.022547077055109</v>
+        <v>1.082809336409239</v>
       </c>
       <c r="M4">
-        <v>0.9726121917815402</v>
+        <v>0.9319386346548266</v>
       </c>
       <c r="N4">
-        <v>0.9726121917815402</v>
+        <v>0.9319386346548266</v>
       </c>
       <c r="O4">
-        <v>0.9587714702474238</v>
+        <v>0.8900461383005701</v>
       </c>
       <c r="P4">
-        <v>1.019800941544054</v>
+        <v>0.9249887638606159</v>
       </c>
       <c r="Q4">
-        <v>1.019800941544054</v>
+        <v>0.924988763860616</v>
       </c>
       <c r="R4">
-        <v>1.043395316425311</v>
+        <v>0.9215138284635107</v>
       </c>
       <c r="S4">
-        <v>1.043395316425311</v>
+        <v>0.9215138284635107</v>
       </c>
       <c r="T4">
-        <v>0.9987841471061357</v>
+        <v>1.069724427416308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8696030663171523</v>
+        <v>0.7469808775048513</v>
       </c>
       <c r="D5">
-        <v>0.9479631414504552</v>
+        <v>2.076703023486468</v>
       </c>
       <c r="E5">
-        <v>1.22565920466436</v>
+        <v>0.9293245514355789</v>
       </c>
       <c r="F5">
-        <v>1.063541187376979</v>
+        <v>1.01151341814016</v>
       </c>
       <c r="G5">
-        <v>0.8556240651348643</v>
+        <v>0.7392225068404596</v>
       </c>
       <c r="H5">
-        <v>1.044770194952162</v>
+        <v>1.089230578420485</v>
       </c>
       <c r="I5">
-        <v>0.8556240651348643</v>
+        <v>0.7392225068404596</v>
       </c>
       <c r="J5">
-        <v>1.22565920466436</v>
+        <v>0.9293245514355789</v>
       </c>
       <c r="K5">
-        <v>1.22565920466436</v>
+        <v>0.9293245514355789</v>
       </c>
       <c r="L5">
-        <v>1.044770194952162</v>
+        <v>1.089230578420485</v>
       </c>
       <c r="M5">
-        <v>0.9501971300435129</v>
+        <v>0.9142265426304721</v>
       </c>
       <c r="N5">
-        <v>0.9501971300435129</v>
+        <v>0.9142265426304721</v>
       </c>
       <c r="O5">
-        <v>0.9233324421347261</v>
+        <v>0.8584779875885985</v>
       </c>
       <c r="P5">
-        <v>1.042017821583795</v>
+        <v>0.9192592122321743</v>
       </c>
       <c r="Q5">
-        <v>1.042017821583795</v>
+        <v>0.9192592122321743</v>
       </c>
       <c r="R5">
-        <v>1.087928167353936</v>
+        <v>0.9217755470330254</v>
       </c>
       <c r="S5">
-        <v>1.087928167353936</v>
+        <v>0.9217755470330254</v>
       </c>
       <c r="T5">
-        <v>1.001193476649329</v>
+        <v>1.098829159304667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8207716909490552</v>
+        <v>0.7114568733119315</v>
       </c>
       <c r="D6">
-        <v>0.8809138558080087</v>
+        <v>2.237889587034888</v>
       </c>
       <c r="E6">
-        <v>1.399948354779962</v>
+        <v>0.937728532503978</v>
       </c>
       <c r="F6">
-        <v>1.082577722370668</v>
+        <v>1.007084136988637</v>
       </c>
       <c r="G6">
-        <v>0.7835818148066434</v>
+        <v>0.7129190089453181</v>
       </c>
       <c r="H6">
-        <v>1.145433046714429</v>
+        <v>1.094983664590909</v>
       </c>
       <c r="I6">
-        <v>0.7835818148066434</v>
+        <v>0.7129190089453181</v>
       </c>
       <c r="J6">
-        <v>1.399948354779962</v>
+        <v>0.937728532503978</v>
       </c>
       <c r="K6">
-        <v>1.399948354779962</v>
+        <v>0.937728532503978</v>
       </c>
       <c r="L6">
-        <v>1.145433046714429</v>
+        <v>1.094983664590909</v>
       </c>
       <c r="M6">
-        <v>0.964507430760536</v>
+        <v>0.9039513367681133</v>
       </c>
       <c r="N6">
-        <v>0.964507430760536</v>
+        <v>0.9039513367681133</v>
       </c>
       <c r="O6">
-        <v>0.9165955174900424</v>
+        <v>0.8397865156160528</v>
       </c>
       <c r="P6">
-        <v>1.109654405433678</v>
+        <v>0.9152104020134016</v>
       </c>
       <c r="Q6">
-        <v>1.109654405433678</v>
+        <v>0.9152104020134016</v>
       </c>
       <c r="R6">
-        <v>1.182227892770249</v>
+        <v>0.9208399346360457</v>
       </c>
       <c r="S6">
-        <v>1.182227892770249</v>
+        <v>0.9208399346360457</v>
       </c>
       <c r="T6">
-        <v>1.018871080904794</v>
+        <v>1.11701030056261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9987077797664132</v>
+        <v>0.6104452344928929</v>
       </c>
       <c r="D7">
-        <v>1.008059194881486</v>
+        <v>2.378088447805713</v>
       </c>
       <c r="E7">
-        <v>0.9987885727473801</v>
+        <v>0.9576065944007474</v>
       </c>
       <c r="F7">
-        <v>0.9997652167074776</v>
+        <v>0.8396282231811841</v>
       </c>
       <c r="G7">
-        <v>0.9987877350320566</v>
+        <v>1.907391231575513</v>
       </c>
       <c r="H7">
-        <v>1.000463486292423</v>
+        <v>1.1791391633749</v>
       </c>
       <c r="I7">
-        <v>0.9987877350320566</v>
+        <v>1.907391231575513</v>
       </c>
       <c r="J7">
-        <v>0.9987885727473801</v>
+        <v>0.9576065944007474</v>
       </c>
       <c r="K7">
-        <v>0.9987885727473801</v>
+        <v>0.9576065944007474</v>
       </c>
       <c r="L7">
-        <v>1.000463486292423</v>
+        <v>1.1791391633749</v>
       </c>
       <c r="M7">
-        <v>0.9996256106622399</v>
+        <v>1.543265197475207</v>
       </c>
       <c r="N7">
-        <v>0.9996256106622399</v>
+        <v>1.543265197475207</v>
       </c>
       <c r="O7">
-        <v>0.9993196670302976</v>
+        <v>1.232325209814435</v>
       </c>
       <c r="P7">
-        <v>0.9993465980239532</v>
+        <v>1.348045663117054</v>
       </c>
       <c r="Q7">
-        <v>0.9993465980239532</v>
+        <v>1.348045663117054</v>
       </c>
       <c r="R7">
-        <v>0.9992070917048099</v>
+        <v>1.250435895937977</v>
       </c>
       <c r="S7">
-        <v>0.9992070917048099</v>
+        <v>1.250435895937977</v>
       </c>
       <c r="T7">
-        <v>1.000761997571206</v>
+        <v>1.312049815805158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9972066739521841</v>
+        <v>0.6080690754830019</v>
       </c>
       <c r="D8">
-        <v>1.018506802121561</v>
+        <v>2.399188206183299</v>
       </c>
       <c r="E8">
-        <v>0.9967827858611295</v>
+        <v>0.951540702077619</v>
       </c>
       <c r="F8">
-        <v>0.9995421388781625</v>
+        <v>0.8394626682831196</v>
       </c>
       <c r="G8">
-        <v>0.9953568005716266</v>
+        <v>1.897955301890948</v>
       </c>
       <c r="H8">
-        <v>1.001576968318909</v>
+        <v>1.181718047170233</v>
       </c>
       <c r="I8">
-        <v>0.9953568005716266</v>
+        <v>1.897955301890948</v>
       </c>
       <c r="J8">
-        <v>0.9967827858611295</v>
+        <v>0.951540702077619</v>
       </c>
       <c r="K8">
-        <v>0.9967827858611295</v>
+        <v>0.951540702077619</v>
       </c>
       <c r="L8">
-        <v>1.001576968318909</v>
+        <v>1.181718047170233</v>
       </c>
       <c r="M8">
-        <v>0.9984668844452678</v>
+        <v>1.53983667453059</v>
       </c>
       <c r="N8">
-        <v>0.9984668844452678</v>
+        <v>1.53983667453059</v>
       </c>
       <c r="O8">
-        <v>0.9980468142809066</v>
+        <v>1.229247474848061</v>
       </c>
       <c r="P8">
-        <v>0.9979055182505551</v>
+        <v>1.343738017046266</v>
       </c>
       <c r="Q8">
-        <v>0.9979055182505551</v>
+        <v>1.343738017046267</v>
       </c>
       <c r="R8">
-        <v>0.9976248351531987</v>
+        <v>1.245688688304105</v>
       </c>
       <c r="S8">
-        <v>0.9976248351531987</v>
+        <v>1.245688688304105</v>
       </c>
       <c r="T8">
-        <v>1.001495361617262</v>
+        <v>1.31298900018137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9948045873335183</v>
+        <v>0.6064436194623405</v>
       </c>
       <c r="D9">
-        <v>1.022715468865872</v>
+        <v>2.426590547314645</v>
       </c>
       <c r="E9">
-        <v>0.9956005731166889</v>
+        <v>0.9458398046335319</v>
       </c>
       <c r="F9">
-        <v>1.000049217535798</v>
+        <v>0.837855608656771</v>
       </c>
       <c r="G9">
-        <v>0.9953917749823895</v>
+        <v>1.89301315191971</v>
       </c>
       <c r="H9">
-        <v>1.004383107445663</v>
+        <v>1.181221195650537</v>
       </c>
       <c r="I9">
-        <v>0.9953917749823895</v>
+        <v>1.89301315191971</v>
       </c>
       <c r="J9">
-        <v>0.9956005731166889</v>
+        <v>0.9458398046335319</v>
       </c>
       <c r="K9">
-        <v>0.9956005731166889</v>
+        <v>0.9458398046335319</v>
       </c>
       <c r="L9">
-        <v>1.004383107445663</v>
+        <v>1.181221195650537</v>
       </c>
       <c r="M9">
-        <v>0.9998874412140263</v>
+        <v>1.537117173785123</v>
       </c>
       <c r="N9">
-        <v>0.9998874412140263</v>
+        <v>1.537117173785123</v>
       </c>
       <c r="O9">
-        <v>0.9981931565871903</v>
+        <v>1.226892655677529</v>
       </c>
       <c r="P9">
-        <v>0.9984584851815805</v>
+        <v>1.34002471740126</v>
       </c>
       <c r="Q9">
-        <v>0.9984584851815805</v>
+        <v>1.34002471740126</v>
       </c>
       <c r="R9">
-        <v>0.9977440071653576</v>
+        <v>1.241478489209328</v>
       </c>
       <c r="S9">
-        <v>0.9977440071653576</v>
+        <v>1.241478489209328</v>
       </c>
       <c r="T9">
-        <v>1.002157454879988</v>
+        <v>1.315160654606256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9893101908884733</v>
+        <v>0.6021816604358654</v>
       </c>
       <c r="D10">
-        <v>1.052731286477841</v>
+        <v>2.454466018812142</v>
       </c>
       <c r="E10">
-        <v>0.9905088133340176</v>
+        <v>0.9281374422729837</v>
       </c>
       <c r="F10">
-        <v>0.9994594322174805</v>
+        <v>0.8389562204137708</v>
       </c>
       <c r="G10">
-        <v>0.9890792476462749</v>
+        <v>1.869134521576244</v>
       </c>
       <c r="H10">
-        <v>1.006858216041362</v>
+        <v>1.19649889107935</v>
       </c>
       <c r="I10">
-        <v>0.9890792476462749</v>
+        <v>1.869134521576244</v>
       </c>
       <c r="J10">
-        <v>0.9905088133340176</v>
+        <v>0.9281374422729837</v>
       </c>
       <c r="K10">
-        <v>0.9905088133340176</v>
+        <v>0.9281374422729837</v>
       </c>
       <c r="L10">
-        <v>1.006858216041362</v>
+        <v>1.19649889107935</v>
       </c>
       <c r="M10">
-        <v>0.9979687318438186</v>
+        <v>1.532816706327797</v>
       </c>
       <c r="N10">
-        <v>0.9979687318438186</v>
+        <v>1.532816706327797</v>
       </c>
       <c r="O10">
-        <v>0.9950825515253702</v>
+        <v>1.22260502436382</v>
       </c>
       <c r="P10">
-        <v>0.9954820923405516</v>
+        <v>1.331256951642859</v>
       </c>
       <c r="Q10">
-        <v>0.9954820923405516</v>
+        <v>1.331256951642859</v>
       </c>
       <c r="R10">
-        <v>0.9942387725889181</v>
+        <v>1.23047707430039</v>
       </c>
       <c r="S10">
-        <v>0.9942387725889181</v>
+        <v>1.23047707430039</v>
       </c>
       <c r="T10">
-        <v>1.004657864434242</v>
+        <v>1.314895792431726</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9826872737276051</v>
+        <v>0.9623339747975366</v>
       </c>
       <c r="D11">
-        <v>1.080319691980833</v>
+        <v>0.9811744348572776</v>
       </c>
       <c r="E11">
-        <v>0.9852429607364324</v>
+        <v>1.061722737552331</v>
       </c>
       <c r="F11">
-        <v>0.9994645463837435</v>
+        <v>1.018339241863306</v>
       </c>
       <c r="G11">
-        <v>0.9808029587378355</v>
+        <v>0.9548128718540917</v>
       </c>
       <c r="H11">
-        <v>1.014628120218563</v>
+        <v>1.012817003728595</v>
       </c>
       <c r="I11">
-        <v>0.9808029587378355</v>
+        <v>0.9548128718540917</v>
       </c>
       <c r="J11">
-        <v>0.9852429607364324</v>
+        <v>1.061722737552331</v>
       </c>
       <c r="K11">
-        <v>0.9852429607364324</v>
+        <v>1.061722737552331</v>
       </c>
       <c r="L11">
-        <v>1.014628120218563</v>
+        <v>1.012817003728595</v>
       </c>
       <c r="M11">
-        <v>0.9977155394781991</v>
+        <v>0.9838149377913432</v>
       </c>
       <c r="N11">
-        <v>0.9977155394781991</v>
+        <v>0.9838149377913432</v>
       </c>
       <c r="O11">
-        <v>0.9927061175613344</v>
+        <v>0.9766546167934077</v>
       </c>
       <c r="P11">
-        <v>0.9935580132309436</v>
+        <v>1.009784204378339</v>
       </c>
       <c r="Q11">
-        <v>0.9935580132309436</v>
+        <v>1.009784204378339</v>
       </c>
       <c r="R11">
-        <v>0.9914792501073157</v>
+        <v>1.022768837671837</v>
       </c>
       <c r="S11">
-        <v>0.9914792501073157</v>
+        <v>1.022768837671837</v>
       </c>
       <c r="T11">
-        <v>1.007190925297502</v>
+        <v>0.9985333774421896</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.059500420431431</v>
+        <v>0.981484668338921</v>
       </c>
       <c r="D12">
-        <v>0.113304783278639</v>
+        <v>0.9987686791194386</v>
       </c>
       <c r="E12">
-        <v>1.641395764440468</v>
+        <v>1.028348576637345</v>
       </c>
       <c r="F12">
-        <v>0.9548772783263109</v>
+        <v>1.007265851692232</v>
       </c>
       <c r="G12">
-        <v>0.973889382741449</v>
+        <v>0.9849567192108584</v>
       </c>
       <c r="H12">
-        <v>0.5353156617967508</v>
+        <v>1.005225566333299</v>
       </c>
       <c r="I12">
-        <v>0.973889382741449</v>
+        <v>0.9849567192108584</v>
       </c>
       <c r="J12">
-        <v>1.641395764440468</v>
+        <v>1.028348576637345</v>
       </c>
       <c r="K12">
-        <v>1.641395764440468</v>
+        <v>1.028348576637345</v>
       </c>
       <c r="L12">
-        <v>0.5353156617967508</v>
+        <v>1.005225566333299</v>
       </c>
       <c r="M12">
-        <v>0.7546025222691</v>
+        <v>0.9950911427720788</v>
       </c>
       <c r="N12">
-        <v>0.7546025222691</v>
+        <v>0.9950911427720788</v>
       </c>
       <c r="O12">
-        <v>0.8562351549898769</v>
+        <v>0.9905556512943595</v>
       </c>
       <c r="P12">
-        <v>1.050200269659556</v>
+        <v>1.006176954060501</v>
       </c>
       <c r="Q12">
-        <v>1.050200269659556</v>
+        <v>1.006176954060501</v>
       </c>
       <c r="R12">
-        <v>1.197999143354784</v>
+        <v>1.011719859704712</v>
       </c>
       <c r="S12">
-        <v>1.197999143354784</v>
+        <v>1.011719859704712</v>
       </c>
       <c r="T12">
-        <v>0.8797138818358414</v>
+        <v>1.001008343555349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.071108989185448</v>
+        <v>0.9379199599149323</v>
       </c>
       <c r="D13">
-        <v>1.023986395512487</v>
+        <v>0.9846038392618931</v>
       </c>
       <c r="E13">
-        <v>0.6424090400447208</v>
+        <v>1.098475455483068</v>
       </c>
       <c r="F13">
-        <v>1.021615997070116</v>
+        <v>1.026032284328003</v>
       </c>
       <c r="G13">
-        <v>1.182788715270982</v>
+        <v>0.9520815222248796</v>
       </c>
       <c r="H13">
-        <v>1.305247984152944</v>
+        <v>1.018004075802691</v>
       </c>
       <c r="I13">
-        <v>1.182788715270982</v>
+        <v>0.9520815222248796</v>
       </c>
       <c r="J13">
-        <v>0.6424090400447208</v>
+        <v>1.098475455483068</v>
       </c>
       <c r="K13">
-        <v>0.6424090400447208</v>
+        <v>1.098475455483068</v>
       </c>
       <c r="L13">
-        <v>1.305247984152944</v>
+        <v>1.018004075802691</v>
       </c>
       <c r="M13">
-        <v>1.244018349711963</v>
+        <v>0.9850427990137856</v>
       </c>
       <c r="N13">
-        <v>1.244018349711963</v>
+        <v>0.9850427990137856</v>
       </c>
       <c r="O13">
-        <v>1.186381896203125</v>
+        <v>0.9693351859808345</v>
       </c>
       <c r="P13">
-        <v>1.043481913156216</v>
+        <v>1.022853684503547</v>
       </c>
       <c r="Q13">
-        <v>1.043481913156216</v>
+        <v>1.022853684503547</v>
       </c>
       <c r="R13">
-        <v>0.9432136948783419</v>
+        <v>1.041759127248427</v>
       </c>
       <c r="S13">
-        <v>0.9432136948783419</v>
+        <v>1.041759127248427</v>
       </c>
       <c r="T13">
-        <v>1.04119285353945</v>
+        <v>1.002852856169245</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.521176470293142</v>
+        <v>0.9035078611563837</v>
       </c>
       <c r="D14">
-        <v>0.05789578805400999</v>
+        <v>0.9623975924363887</v>
       </c>
       <c r="E14">
-        <v>0.8792445411765465</v>
+        <v>1.163884622707191</v>
       </c>
       <c r="F14">
-        <v>0.8088994013775033</v>
+        <v>1.042985020160374</v>
       </c>
       <c r="G14">
-        <v>1.119667219287633</v>
+        <v>0.8888206865078512</v>
       </c>
       <c r="H14">
-        <v>0.7809792423425447</v>
+        <v>1.028377737922276</v>
       </c>
       <c r="I14">
-        <v>1.119667219287633</v>
+        <v>0.8888206865078512</v>
       </c>
       <c r="J14">
-        <v>0.8792445411765465</v>
+        <v>1.163884622707191</v>
       </c>
       <c r="K14">
-        <v>0.8792445411765465</v>
+        <v>1.163884622707191</v>
       </c>
       <c r="L14">
-        <v>0.7809792423425447</v>
+        <v>1.028377737922276</v>
       </c>
       <c r="M14">
-        <v>0.9503232308150886</v>
+        <v>0.9585992122150638</v>
       </c>
       <c r="N14">
-        <v>0.9503232308150886</v>
+        <v>0.9585992122150638</v>
       </c>
       <c r="O14">
-        <v>1.14060764397444</v>
+        <v>0.9402354285288371</v>
       </c>
       <c r="P14">
-        <v>0.926630334268908</v>
+        <v>1.027027682379106</v>
       </c>
       <c r="Q14">
-        <v>0.926630334268908</v>
+        <v>1.027027682379106</v>
       </c>
       <c r="R14">
-        <v>0.9147838859958176</v>
+        <v>1.061241917461127</v>
       </c>
       <c r="S14">
-        <v>0.9147838859958176</v>
+        <v>1.061241917461127</v>
       </c>
       <c r="T14">
-        <v>0.8613104437552299</v>
+        <v>0.9983289201484108</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9972955378836347</v>
+        <v>0.9641418518803565</v>
       </c>
       <c r="D15">
-        <v>0.8260958226737389</v>
+        <v>0.9806445025432544</v>
       </c>
       <c r="E15">
-        <v>1.086395609963157</v>
+        <v>1.061305434390841</v>
       </c>
       <c r="F15">
-        <v>0.9654369733219197</v>
+        <v>1.017132792480926</v>
       </c>
       <c r="G15">
-        <v>2.080174568926314</v>
+        <v>0.9613593926257629</v>
       </c>
       <c r="H15">
-        <v>0.9445203895218965</v>
+        <v>1.012092100429928</v>
       </c>
       <c r="I15">
-        <v>2.080174568926314</v>
+        <v>0.9613593926257629</v>
       </c>
       <c r="J15">
-        <v>1.086395609963157</v>
+        <v>1.061305434390841</v>
       </c>
       <c r="K15">
-        <v>1.086395609963157</v>
+        <v>1.061305434390841</v>
       </c>
       <c r="L15">
-        <v>0.9445203895218965</v>
+        <v>1.012092100429928</v>
       </c>
       <c r="M15">
-        <v>1.512347479224105</v>
+        <v>0.9867257465278453</v>
       </c>
       <c r="N15">
-        <v>1.512347479224105</v>
+        <v>0.9867257465278453</v>
       </c>
       <c r="O15">
-        <v>1.340663498777282</v>
+        <v>0.979197781645349</v>
       </c>
       <c r="P15">
-        <v>1.370363522803789</v>
+        <v>1.011585642482177</v>
       </c>
       <c r="Q15">
-        <v>1.370363522803789</v>
+        <v>1.011585642482177</v>
       </c>
       <c r="R15">
-        <v>1.299371544593631</v>
+        <v>1.024015590459343</v>
       </c>
       <c r="S15">
-        <v>1.299371544593631</v>
+        <v>1.024015590459343</v>
       </c>
       <c r="T15">
-        <v>1.14998648371511</v>
+        <v>0.9994460123918448</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.3524289094047066</v>
+        <v>0.931090027179191</v>
       </c>
       <c r="D16">
-        <v>0.754573258017139</v>
+        <v>0.9695121302760342</v>
       </c>
       <c r="E16">
-        <v>2.049344331726096</v>
+        <v>1.114178441069082</v>
       </c>
       <c r="F16">
-        <v>1.318120607988505</v>
+        <v>1.032699900549426</v>
       </c>
       <c r="G16">
-        <v>0.2009261821066353</v>
+        <v>0.9226773065079716</v>
       </c>
       <c r="H16">
-        <v>1.200265218613977</v>
+        <v>1.022547077055109</v>
       </c>
       <c r="I16">
-        <v>0.2009261821066353</v>
+        <v>0.9226773065079716</v>
       </c>
       <c r="J16">
-        <v>2.049344331726096</v>
+        <v>1.114178441069082</v>
       </c>
       <c r="K16">
-        <v>2.049344331726096</v>
+        <v>1.114178441069082</v>
       </c>
       <c r="L16">
-        <v>1.200265218613977</v>
+        <v>1.022547077055109</v>
       </c>
       <c r="M16">
-        <v>0.7005957003603062</v>
+        <v>0.9726121917815402</v>
       </c>
       <c r="N16">
-        <v>0.7005957003603062</v>
+        <v>0.9726121917815402</v>
       </c>
       <c r="O16">
-        <v>0.5845401033751063</v>
+        <v>0.9587714702474238</v>
       </c>
       <c r="P16">
-        <v>1.150178577482236</v>
+        <v>1.019800941544054</v>
       </c>
       <c r="Q16">
-        <v>1.150178577482236</v>
+        <v>1.019800941544054</v>
       </c>
       <c r="R16">
-        <v>1.374970016043201</v>
+        <v>1.043395316425311</v>
       </c>
       <c r="S16">
-        <v>1.374970016043201</v>
+        <v>1.043395316425311</v>
       </c>
       <c r="T16">
-        <v>0.9792764179761767</v>
+        <v>0.9987841471061357</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.5092015161683993</v>
+        <v>0.8696030663171523</v>
       </c>
       <c r="D17">
-        <v>1.084555328126569</v>
+        <v>0.9479631414504552</v>
       </c>
       <c r="E17">
-        <v>1.667833054879367</v>
+        <v>1.22565920466436</v>
       </c>
       <c r="F17">
-        <v>1.218705497987602</v>
+        <v>1.063541187376979</v>
       </c>
       <c r="G17">
-        <v>0.3972901217784927</v>
+        <v>0.8556240651348643</v>
       </c>
       <c r="H17">
-        <v>1.161253170218031</v>
+        <v>1.044770194952162</v>
       </c>
       <c r="I17">
-        <v>0.3972901217784927</v>
+        <v>0.8556240651348643</v>
       </c>
       <c r="J17">
-        <v>1.667833054879367</v>
+        <v>1.22565920466436</v>
       </c>
       <c r="K17">
-        <v>1.667833054879367</v>
+        <v>1.22565920466436</v>
       </c>
       <c r="L17">
-        <v>1.161253170218031</v>
+        <v>1.044770194952162</v>
       </c>
       <c r="M17">
-        <v>0.7792716459982618</v>
+        <v>0.9501971300435129</v>
       </c>
       <c r="N17">
-        <v>0.7792716459982618</v>
+        <v>0.9501971300435129</v>
       </c>
       <c r="O17">
-        <v>0.6892482693883076</v>
+        <v>0.9233324421347261</v>
       </c>
       <c r="P17">
-        <v>1.075458782291963</v>
+        <v>1.042017821583795</v>
       </c>
       <c r="Q17">
-        <v>1.075458782291963</v>
+        <v>1.042017821583795</v>
       </c>
       <c r="R17">
-        <v>1.223552350438814</v>
+        <v>1.087928167353936</v>
       </c>
       <c r="S17">
-        <v>1.223552350438814</v>
+        <v>1.087928167353936</v>
       </c>
       <c r="T17">
-        <v>1.006473114859743</v>
+        <v>1.001193476649329</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8225224037468081</v>
+        <v>0.8207716909490552</v>
       </c>
       <c r="D18">
-        <v>1.731412346294676</v>
+        <v>0.8809138558080087</v>
       </c>
       <c r="E18">
-        <v>0.9081107321289154</v>
+        <v>1.399948354779962</v>
       </c>
       <c r="F18">
-        <v>1.021334386353259</v>
+        <v>1.082577722370668</v>
       </c>
       <c r="G18">
-        <v>0.7893058227192753</v>
+        <v>0.7835818148066434</v>
       </c>
       <c r="H18">
-        <v>1.084732143663276</v>
+        <v>1.145433046714429</v>
       </c>
       <c r="I18">
-        <v>0.7893058227192753</v>
+        <v>0.7835818148066434</v>
       </c>
       <c r="J18">
-        <v>0.9081107321289154</v>
+        <v>1.399948354779962</v>
       </c>
       <c r="K18">
-        <v>0.9081107321289154</v>
+        <v>1.399948354779962</v>
       </c>
       <c r="L18">
-        <v>1.084732143663276</v>
+        <v>1.145433046714429</v>
       </c>
       <c r="M18">
-        <v>0.9370189831912759</v>
+        <v>0.964507430760536</v>
       </c>
       <c r="N18">
-        <v>0.9370189831912759</v>
+        <v>0.964507430760536</v>
       </c>
       <c r="O18">
-        <v>0.8988534567097867</v>
+        <v>0.9165955174900424</v>
       </c>
       <c r="P18">
-        <v>0.9273828995038224</v>
+        <v>1.109654405433678</v>
       </c>
       <c r="Q18">
-        <v>0.9273828995038222</v>
+        <v>1.109654405433678</v>
       </c>
       <c r="R18">
-        <v>0.9225648576600955</v>
+        <v>1.182227892770249</v>
       </c>
       <c r="S18">
-        <v>0.9225648576600955</v>
+        <v>1.182227892770249</v>
       </c>
       <c r="T18">
-        <v>1.059569639151035</v>
+        <v>1.018871080904794</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7984232216693862</v>
+        <v>0.9987077797664132</v>
       </c>
       <c r="D19">
-        <v>1.967593185857949</v>
+        <v>1.008059194881486</v>
       </c>
       <c r="E19">
-        <v>0.8579125981852963</v>
+        <v>0.9987885727473801</v>
       </c>
       <c r="F19">
-        <v>0.9989717949128551</v>
+        <v>0.9997652167074776</v>
       </c>
       <c r="G19">
-        <v>0.896965680157764</v>
+        <v>0.9987877350320566</v>
       </c>
       <c r="H19">
-        <v>1.070460223172512</v>
+        <v>1.000463486292423</v>
       </c>
       <c r="I19">
-        <v>0.896965680157764</v>
+        <v>0.9987877350320566</v>
       </c>
       <c r="J19">
-        <v>0.8579125981852963</v>
+        <v>0.9987885727473801</v>
       </c>
       <c r="K19">
-        <v>0.8579125981852963</v>
+        <v>0.9987885727473801</v>
       </c>
       <c r="L19">
-        <v>1.070460223172512</v>
+        <v>1.000463486292423</v>
       </c>
       <c r="M19">
-        <v>0.9837129516651382</v>
+        <v>0.9996256106622399</v>
       </c>
       <c r="N19">
-        <v>0.9837129516651382</v>
+        <v>0.9996256106622399</v>
       </c>
       <c r="O19">
-        <v>0.9219497083332208</v>
+        <v>0.9993196670302976</v>
       </c>
       <c r="P19">
-        <v>0.9417795005051909</v>
+        <v>0.9993465980239532</v>
       </c>
       <c r="Q19">
-        <v>0.9417795005051909</v>
+        <v>0.9993465980239532</v>
       </c>
       <c r="R19">
-        <v>0.9208127749252172</v>
+        <v>0.9992070917048099</v>
       </c>
       <c r="S19">
-        <v>0.9208127749252172</v>
+        <v>0.9992070917048099</v>
       </c>
       <c r="T19">
-        <v>1.098387783992627</v>
+        <v>1.000761997571206</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.00020374834734</v>
+        <v>0.9972066739521841</v>
       </c>
       <c r="D20">
-        <v>1.004480210937239</v>
+        <v>1.018506802121561</v>
       </c>
       <c r="E20">
-        <v>1.012176632781169</v>
+        <v>0.9967827858611295</v>
       </c>
       <c r="F20">
-        <v>0.9964799589350459</v>
+        <v>0.9995421388781625</v>
       </c>
       <c r="G20">
-        <v>1.001505874747759</v>
+        <v>0.9953568005716266</v>
       </c>
       <c r="H20">
-        <v>0.9941506556765689</v>
+        <v>1.001576968318909</v>
       </c>
       <c r="I20">
-        <v>1.001505874747759</v>
+        <v>0.9953568005716266</v>
       </c>
       <c r="J20">
-        <v>1.012176632781169</v>
+        <v>0.9967827858611295</v>
       </c>
       <c r="K20">
-        <v>1.012176632781169</v>
+        <v>0.9967827858611295</v>
       </c>
       <c r="L20">
-        <v>0.9941506556765689</v>
+        <v>1.001576968318909</v>
       </c>
       <c r="M20">
-        <v>0.9978282652121642</v>
+        <v>0.9984668844452678</v>
       </c>
       <c r="N20">
-        <v>0.9978282652121642</v>
+        <v>0.9984668844452678</v>
       </c>
       <c r="O20">
-        <v>0.9986200929238894</v>
+        <v>0.9980468142809066</v>
       </c>
       <c r="P20">
-        <v>1.002611054401832</v>
+        <v>0.9979055182505551</v>
       </c>
       <c r="Q20">
-        <v>1.002611054401833</v>
+        <v>0.9979055182505551</v>
       </c>
       <c r="R20">
-        <v>1.005002448996666</v>
+        <v>0.9976248351531987</v>
       </c>
       <c r="S20">
-        <v>1.005002448996666</v>
+        <v>0.9976248351531987</v>
       </c>
       <c r="T20">
-        <v>1.001499513570854</v>
+        <v>1.001495361617262</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9975400308108802</v>
+        <v>0.9948045873335183</v>
       </c>
       <c r="D21">
-        <v>1.009431322878932</v>
+        <v>1.022715468865872</v>
       </c>
       <c r="E21">
-        <v>0.9773239618550722</v>
+        <v>0.9956005731166889</v>
       </c>
       <c r="F21">
-        <v>1.003847067411719</v>
+        <v>1.000049217535798</v>
       </c>
       <c r="G21">
-        <v>1.001667525785065</v>
+        <v>0.9953917749823895</v>
       </c>
       <c r="H21">
-        <v>1.00719998665971</v>
+        <v>1.004383107445663</v>
       </c>
       <c r="I21">
-        <v>1.001667525785065</v>
+        <v>0.9953917749823895</v>
       </c>
       <c r="J21">
-        <v>0.9773239618550722</v>
+        <v>0.9956005731166889</v>
       </c>
       <c r="K21">
-        <v>0.9773239618550722</v>
+        <v>0.9956005731166889</v>
       </c>
       <c r="L21">
-        <v>1.00719998665971</v>
+        <v>1.004383107445663</v>
       </c>
       <c r="M21">
-        <v>1.004433756222388</v>
+        <v>0.9998874412140263</v>
       </c>
       <c r="N21">
-        <v>1.004433756222388</v>
+        <v>0.9998874412140263</v>
       </c>
       <c r="O21">
-        <v>1.002135847751885</v>
+        <v>0.9981931565871903</v>
       </c>
       <c r="P21">
-        <v>0.9953971580999493</v>
+        <v>0.9984584851815805</v>
       </c>
       <c r="Q21">
-        <v>0.9953971580999493</v>
+        <v>0.9984584851815805</v>
       </c>
       <c r="R21">
-        <v>0.9908788590387301</v>
+        <v>0.9977440071653576</v>
       </c>
       <c r="S21">
-        <v>0.9908788590387301</v>
+        <v>0.9977440071653576</v>
       </c>
       <c r="T21">
-        <v>0.9995016492335633</v>
+        <v>1.002157454879988</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9865029385022321</v>
+        <v>0.9893101908884733</v>
       </c>
       <c r="D22">
-        <v>1.006854354290903</v>
+        <v>1.052731286477841</v>
       </c>
       <c r="E22">
-        <v>1.06923341485917</v>
+        <v>0.9905088133340176</v>
       </c>
       <c r="F22">
-        <v>0.9879419183270389</v>
+        <v>0.9994594322174805</v>
       </c>
       <c r="G22">
-        <v>0.985785025820679</v>
+        <v>0.9890792476462749</v>
       </c>
       <c r="H22">
-        <v>0.9953769325373885</v>
+        <v>1.006858216041362</v>
       </c>
       <c r="I22">
-        <v>0.985785025820679</v>
+        <v>0.9890792476462749</v>
       </c>
       <c r="J22">
-        <v>1.06923341485917</v>
+        <v>0.9905088133340176</v>
       </c>
       <c r="K22">
-        <v>1.06923341485917</v>
+        <v>0.9905088133340176</v>
       </c>
       <c r="L22">
-        <v>0.9953769325373885</v>
+        <v>1.006858216041362</v>
       </c>
       <c r="M22">
-        <v>0.9905809791790336</v>
+        <v>0.9979687318438186</v>
       </c>
       <c r="N22">
-        <v>0.9905809791790336</v>
+        <v>0.9979687318438186</v>
       </c>
       <c r="O22">
-        <v>0.9892216322867665</v>
+        <v>0.9950825515253702</v>
       </c>
       <c r="P22">
-        <v>1.016798457739079</v>
+        <v>0.9954820923405516</v>
       </c>
       <c r="Q22">
-        <v>1.016798457739079</v>
+        <v>0.9954820923405516</v>
       </c>
       <c r="R22">
-        <v>1.029907197019102</v>
+        <v>0.9942387725889181</v>
       </c>
       <c r="S22">
-        <v>1.029907197019102</v>
+        <v>0.9942387725889181</v>
       </c>
       <c r="T22">
-        <v>1.005282430722902</v>
+        <v>1.004657864434242</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9826872737276051</v>
+      </c>
+      <c r="D23">
+        <v>1.080319691980833</v>
+      </c>
+      <c r="E23">
+        <v>0.9852429607364324</v>
+      </c>
+      <c r="F23">
+        <v>0.9994645463837435</v>
+      </c>
+      <c r="G23">
+        <v>0.9808029587378355</v>
+      </c>
+      <c r="H23">
+        <v>1.014628120218563</v>
+      </c>
+      <c r="I23">
+        <v>0.9808029587378355</v>
+      </c>
+      <c r="J23">
+        <v>0.9852429607364324</v>
+      </c>
+      <c r="K23">
+        <v>0.9852429607364324</v>
+      </c>
+      <c r="L23">
+        <v>1.014628120218563</v>
+      </c>
+      <c r="M23">
+        <v>0.9977155394781991</v>
+      </c>
+      <c r="N23">
+        <v>0.9977155394781991</v>
+      </c>
+      <c r="O23">
+        <v>0.9927061175613344</v>
+      </c>
+      <c r="P23">
+        <v>0.9935580132309436</v>
+      </c>
+      <c r="Q23">
+        <v>0.9935580132309436</v>
+      </c>
+      <c r="R23">
+        <v>0.9914792501073157</v>
+      </c>
+      <c r="S23">
+        <v>0.9914792501073157</v>
+      </c>
+      <c r="T23">
+        <v>1.007190925297502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.059500420431431</v>
+      </c>
+      <c r="D24">
+        <v>0.113304783278639</v>
+      </c>
+      <c r="E24">
+        <v>1.641395764440468</v>
+      </c>
+      <c r="F24">
+        <v>0.9548772783263109</v>
+      </c>
+      <c r="G24">
+        <v>0.973889382741449</v>
+      </c>
+      <c r="H24">
+        <v>0.5353156617967508</v>
+      </c>
+      <c r="I24">
+        <v>0.973889382741449</v>
+      </c>
+      <c r="J24">
+        <v>1.641395764440468</v>
+      </c>
+      <c r="K24">
+        <v>1.641395764440468</v>
+      </c>
+      <c r="L24">
+        <v>0.5353156617967508</v>
+      </c>
+      <c r="M24">
+        <v>0.7546025222691</v>
+      </c>
+      <c r="N24">
+        <v>0.7546025222691</v>
+      </c>
+      <c r="O24">
+        <v>0.8562351549898769</v>
+      </c>
+      <c r="P24">
+        <v>1.050200269659556</v>
+      </c>
+      <c r="Q24">
+        <v>1.050200269659556</v>
+      </c>
+      <c r="R24">
+        <v>1.197999143354784</v>
+      </c>
+      <c r="S24">
+        <v>1.197999143354784</v>
+      </c>
+      <c r="T24">
+        <v>0.8797138818358414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.071108989185448</v>
+      </c>
+      <c r="D25">
+        <v>1.023986395512487</v>
+      </c>
+      <c r="E25">
+        <v>0.6424090400447208</v>
+      </c>
+      <c r="F25">
+        <v>1.021615997070116</v>
+      </c>
+      <c r="G25">
+        <v>1.182788715270982</v>
+      </c>
+      <c r="H25">
+        <v>1.305247984152944</v>
+      </c>
+      <c r="I25">
+        <v>1.182788715270982</v>
+      </c>
+      <c r="J25">
+        <v>0.6424090400447208</v>
+      </c>
+      <c r="K25">
+        <v>0.6424090400447208</v>
+      </c>
+      <c r="L25">
+        <v>1.305247984152944</v>
+      </c>
+      <c r="M25">
+        <v>1.244018349711963</v>
+      </c>
+      <c r="N25">
+        <v>1.244018349711963</v>
+      </c>
+      <c r="O25">
+        <v>1.186381896203125</v>
+      </c>
+      <c r="P25">
+        <v>1.043481913156216</v>
+      </c>
+      <c r="Q25">
+        <v>1.043481913156216</v>
+      </c>
+      <c r="R25">
+        <v>0.9432136948783419</v>
+      </c>
+      <c r="S25">
+        <v>0.9432136948783419</v>
+      </c>
+      <c r="T25">
+        <v>1.04119285353945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.521176470293142</v>
+      </c>
+      <c r="D26">
+        <v>0.05789578805400999</v>
+      </c>
+      <c r="E26">
+        <v>0.8792445411765465</v>
+      </c>
+      <c r="F26">
+        <v>0.8088994013775033</v>
+      </c>
+      <c r="G26">
+        <v>1.119667219287633</v>
+      </c>
+      <c r="H26">
+        <v>0.7809792423425447</v>
+      </c>
+      <c r="I26">
+        <v>1.119667219287633</v>
+      </c>
+      <c r="J26">
+        <v>0.8792445411765465</v>
+      </c>
+      <c r="K26">
+        <v>0.8792445411765465</v>
+      </c>
+      <c r="L26">
+        <v>0.7809792423425447</v>
+      </c>
+      <c r="M26">
+        <v>0.9503232308150886</v>
+      </c>
+      <c r="N26">
+        <v>0.9503232308150886</v>
+      </c>
+      <c r="O26">
+        <v>1.14060764397444</v>
+      </c>
+      <c r="P26">
+        <v>0.926630334268908</v>
+      </c>
+      <c r="Q26">
+        <v>0.926630334268908</v>
+      </c>
+      <c r="R26">
+        <v>0.9147838859958176</v>
+      </c>
+      <c r="S26">
+        <v>0.9147838859958176</v>
+      </c>
+      <c r="T26">
+        <v>0.8613104437552299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9972955378836347</v>
+      </c>
+      <c r="D27">
+        <v>0.8260958226737389</v>
+      </c>
+      <c r="E27">
+        <v>1.086395609963157</v>
+      </c>
+      <c r="F27">
+        <v>0.9654369733219197</v>
+      </c>
+      <c r="G27">
+        <v>2.080174568926314</v>
+      </c>
+      <c r="H27">
+        <v>0.9445203895218965</v>
+      </c>
+      <c r="I27">
+        <v>2.080174568926314</v>
+      </c>
+      <c r="J27">
+        <v>1.086395609963157</v>
+      </c>
+      <c r="K27">
+        <v>1.086395609963157</v>
+      </c>
+      <c r="L27">
+        <v>0.9445203895218965</v>
+      </c>
+      <c r="M27">
+        <v>1.512347479224105</v>
+      </c>
+      <c r="N27">
+        <v>1.512347479224105</v>
+      </c>
+      <c r="O27">
+        <v>1.340663498777282</v>
+      </c>
+      <c r="P27">
+        <v>1.370363522803789</v>
+      </c>
+      <c r="Q27">
+        <v>1.370363522803789</v>
+      </c>
+      <c r="R27">
+        <v>1.299371544593631</v>
+      </c>
+      <c r="S27">
+        <v>1.299371544593631</v>
+      </c>
+      <c r="T27">
+        <v>1.14998648371511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.3524289094047066</v>
+      </c>
+      <c r="D28">
+        <v>0.754573258017139</v>
+      </c>
+      <c r="E28">
+        <v>2.049344331726096</v>
+      </c>
+      <c r="F28">
+        <v>1.318120607988505</v>
+      </c>
+      <c r="G28">
+        <v>0.2009261821066353</v>
+      </c>
+      <c r="H28">
+        <v>1.200265218613977</v>
+      </c>
+      <c r="I28">
+        <v>0.2009261821066353</v>
+      </c>
+      <c r="J28">
+        <v>2.049344331726096</v>
+      </c>
+      <c r="K28">
+        <v>2.049344331726096</v>
+      </c>
+      <c r="L28">
+        <v>1.200265218613977</v>
+      </c>
+      <c r="M28">
+        <v>0.7005957003603062</v>
+      </c>
+      <c r="N28">
+        <v>0.7005957003603062</v>
+      </c>
+      <c r="O28">
+        <v>0.5845401033751063</v>
+      </c>
+      <c r="P28">
+        <v>1.150178577482236</v>
+      </c>
+      <c r="Q28">
+        <v>1.150178577482236</v>
+      </c>
+      <c r="R28">
+        <v>1.374970016043201</v>
+      </c>
+      <c r="S28">
+        <v>1.374970016043201</v>
+      </c>
+      <c r="T28">
+        <v>0.9792764179761767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.5092015161683993</v>
+      </c>
+      <c r="D29">
+        <v>1.084555328126569</v>
+      </c>
+      <c r="E29">
+        <v>1.667833054879367</v>
+      </c>
+      <c r="F29">
+        <v>1.218705497987602</v>
+      </c>
+      <c r="G29">
+        <v>0.3972901217784927</v>
+      </c>
+      <c r="H29">
+        <v>1.161253170218031</v>
+      </c>
+      <c r="I29">
+        <v>0.3972901217784927</v>
+      </c>
+      <c r="J29">
+        <v>1.667833054879367</v>
+      </c>
+      <c r="K29">
+        <v>1.667833054879367</v>
+      </c>
+      <c r="L29">
+        <v>1.161253170218031</v>
+      </c>
+      <c r="M29">
+        <v>0.7792716459982618</v>
+      </c>
+      <c r="N29">
+        <v>0.7792716459982618</v>
+      </c>
+      <c r="O29">
+        <v>0.6892482693883076</v>
+      </c>
+      <c r="P29">
+        <v>1.075458782291963</v>
+      </c>
+      <c r="Q29">
+        <v>1.075458782291963</v>
+      </c>
+      <c r="R29">
+        <v>1.223552350438814</v>
+      </c>
+      <c r="S29">
+        <v>1.223552350438814</v>
+      </c>
+      <c r="T29">
+        <v>1.006473114859743</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8225224037468081</v>
+      </c>
+      <c r="D30">
+        <v>1.731412346294676</v>
+      </c>
+      <c r="E30">
+        <v>0.9081107321289154</v>
+      </c>
+      <c r="F30">
+        <v>1.021334386353259</v>
+      </c>
+      <c r="G30">
+        <v>0.7893058227192753</v>
+      </c>
+      <c r="H30">
+        <v>1.084732143663276</v>
+      </c>
+      <c r="I30">
+        <v>0.7893058227192753</v>
+      </c>
+      <c r="J30">
+        <v>0.9081107321289154</v>
+      </c>
+      <c r="K30">
+        <v>0.9081107321289154</v>
+      </c>
+      <c r="L30">
+        <v>1.084732143663276</v>
+      </c>
+      <c r="M30">
+        <v>0.9370189831912759</v>
+      </c>
+      <c r="N30">
+        <v>0.9370189831912759</v>
+      </c>
+      <c r="O30">
+        <v>0.8988534567097867</v>
+      </c>
+      <c r="P30">
+        <v>0.9273828995038224</v>
+      </c>
+      <c r="Q30">
+        <v>0.9273828995038222</v>
+      </c>
+      <c r="R30">
+        <v>0.9225648576600955</v>
+      </c>
+      <c r="S30">
+        <v>0.9225648576600955</v>
+      </c>
+      <c r="T30">
+        <v>1.059569639151035</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.7984232216693862</v>
+      </c>
+      <c r="D31">
+        <v>1.967593185857949</v>
+      </c>
+      <c r="E31">
+        <v>0.8579125981852963</v>
+      </c>
+      <c r="F31">
+        <v>0.9989717949128551</v>
+      </c>
+      <c r="G31">
+        <v>0.896965680157764</v>
+      </c>
+      <c r="H31">
+        <v>1.070460223172512</v>
+      </c>
+      <c r="I31">
+        <v>0.896965680157764</v>
+      </c>
+      <c r="J31">
+        <v>0.8579125981852963</v>
+      </c>
+      <c r="K31">
+        <v>0.8579125981852963</v>
+      </c>
+      <c r="L31">
+        <v>1.070460223172512</v>
+      </c>
+      <c r="M31">
+        <v>0.9837129516651382</v>
+      </c>
+      <c r="N31">
+        <v>0.9837129516651382</v>
+      </c>
+      <c r="O31">
+        <v>0.9219497083332208</v>
+      </c>
+      <c r="P31">
+        <v>0.9417795005051909</v>
+      </c>
+      <c r="Q31">
+        <v>0.9417795005051909</v>
+      </c>
+      <c r="R31">
+        <v>0.9208127749252172</v>
+      </c>
+      <c r="S31">
+        <v>0.9208127749252172</v>
+      </c>
+      <c r="T31">
+        <v>1.098387783992627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.1979767172602739</v>
+      </c>
+      <c r="D32">
+        <v>0.4247746371698631</v>
+      </c>
+      <c r="E32">
+        <v>2.396889205657536</v>
+      </c>
+      <c r="F32">
+        <v>1.416218868767124</v>
+      </c>
+      <c r="G32">
+        <v>0.00448124480657534</v>
+      </c>
+      <c r="H32">
+        <v>1.264274525287671</v>
+      </c>
+      <c r="I32">
+        <v>0.00448124480657534</v>
+      </c>
+      <c r="J32">
+        <v>2.396889205657536</v>
+      </c>
+      <c r="K32">
+        <v>2.396889205657536</v>
+      </c>
+      <c r="L32">
+        <v>1.264274525287671</v>
+      </c>
+      <c r="M32">
+        <v>0.6343778850471234</v>
+      </c>
+      <c r="N32">
+        <v>0.6343778850471234</v>
+      </c>
+      <c r="O32">
+        <v>0.4889108291181736</v>
+      </c>
+      <c r="P32">
+        <v>1.221881658583928</v>
+      </c>
+      <c r="Q32">
+        <v>1.221881658583927</v>
+      </c>
+      <c r="R32">
+        <v>1.51563354535233</v>
+      </c>
+      <c r="S32">
+        <v>1.51563354535233</v>
+      </c>
+      <c r="T32">
+        <v>0.9507691998248405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.090353289768421</v>
+      </c>
+      <c r="D33">
+        <v>1.267895143540527</v>
+      </c>
+      <c r="E33">
+        <v>1.127957539631579</v>
+      </c>
+      <c r="F33">
+        <v>0.8929287299999999</v>
+      </c>
+      <c r="G33">
+        <v>0.1946733262157895</v>
+      </c>
+      <c r="H33">
+        <v>1.100241909421053</v>
+      </c>
+      <c r="I33">
+        <v>0.1946733262157895</v>
+      </c>
+      <c r="J33">
+        <v>1.127957539631579</v>
+      </c>
+      <c r="K33">
+        <v>1.127957539631579</v>
+      </c>
+      <c r="L33">
+        <v>1.100241909421053</v>
+      </c>
+      <c r="M33">
+        <v>0.6474576178184211</v>
+      </c>
+      <c r="N33">
+        <v>0.6474576178184211</v>
+      </c>
+      <c r="O33">
+        <v>0.7950895084684211</v>
+      </c>
+      <c r="P33">
+        <v>0.8076242584228072</v>
+      </c>
+      <c r="Q33">
+        <v>0.8076242584228072</v>
+      </c>
+      <c r="R33">
+        <v>0.8877075787250002</v>
+      </c>
+      <c r="S33">
+        <v>0.8877075787250002</v>
+      </c>
+      <c r="T33">
+        <v>0.9456749897628948</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.5585022057042105</v>
+      </c>
+      <c r="D34">
+        <v>2.815567712421053</v>
+      </c>
+      <c r="E34">
+        <v>0.8653526162999999</v>
+      </c>
+      <c r="F34">
+        <v>0.8357901636842106</v>
+      </c>
+      <c r="G34">
+        <v>1.715860736600526</v>
+      </c>
+      <c r="H34">
+        <v>1.209510174210526</v>
+      </c>
+      <c r="I34">
+        <v>1.715860736600526</v>
+      </c>
+      <c r="J34">
+        <v>0.8653526162999999</v>
+      </c>
+      <c r="K34">
+        <v>0.8653526162999999</v>
+      </c>
+      <c r="L34">
+        <v>1.209510174210526</v>
+      </c>
+      <c r="M34">
+        <v>1.462685455405526</v>
+      </c>
+      <c r="N34">
+        <v>1.462685455405526</v>
+      </c>
+      <c r="O34">
+        <v>1.161291038838421</v>
+      </c>
+      <c r="P34">
+        <v>1.263574509037017</v>
+      </c>
+      <c r="Q34">
+        <v>1.263574509037017</v>
+      </c>
+      <c r="R34">
+        <v>1.164019035852763</v>
+      </c>
+      <c r="S34">
+        <v>1.164019035852763</v>
+      </c>
+      <c r="T34">
+        <v>1.333430601486755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4140694772669542</v>
+      </c>
+      <c r="D35">
+        <v>5.427549206198611</v>
+      </c>
+      <c r="E35">
+        <v>0.4597322949250048</v>
+      </c>
+      <c r="F35">
+        <v>0.8003632056451455</v>
+      </c>
+      <c r="G35">
+        <v>0.3982503006320758</v>
+      </c>
+      <c r="H35">
+        <v>1.041718704087067</v>
+      </c>
+      <c r="I35">
+        <v>0.3982503006320758</v>
+      </c>
+      <c r="J35">
+        <v>0.4597322949250048</v>
+      </c>
+      <c r="K35">
+        <v>0.4597322949250048</v>
+      </c>
+      <c r="L35">
+        <v>1.041718704087067</v>
+      </c>
+      <c r="M35">
+        <v>0.7199845023595715</v>
+      </c>
+      <c r="N35">
+        <v>0.7199845023595715</v>
+      </c>
+      <c r="O35">
+        <v>0.618012827328699</v>
+      </c>
+      <c r="P35">
+        <v>0.6332337665480492</v>
+      </c>
+      <c r="Q35">
+        <v>0.6332337665480492</v>
+      </c>
+      <c r="R35">
+        <v>0.5898583986422881</v>
+      </c>
+      <c r="S35">
+        <v>0.5898583986422881</v>
+      </c>
+      <c r="T35">
+        <v>1.423613864792476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.00020374834734</v>
+      </c>
+      <c r="D36">
+        <v>1.004480210937239</v>
+      </c>
+      <c r="E36">
+        <v>1.012176632781169</v>
+      </c>
+      <c r="F36">
+        <v>0.9964799589350459</v>
+      </c>
+      <c r="G36">
+        <v>1.001505874747759</v>
+      </c>
+      <c r="H36">
+        <v>0.9941506556765689</v>
+      </c>
+      <c r="I36">
+        <v>1.001505874747759</v>
+      </c>
+      <c r="J36">
+        <v>1.012176632781169</v>
+      </c>
+      <c r="K36">
+        <v>1.012176632781169</v>
+      </c>
+      <c r="L36">
+        <v>0.9941506556765689</v>
+      </c>
+      <c r="M36">
+        <v>0.9978282652121642</v>
+      </c>
+      <c r="N36">
+        <v>0.9978282652121642</v>
+      </c>
+      <c r="O36">
+        <v>0.9986200929238894</v>
+      </c>
+      <c r="P36">
+        <v>1.002611054401832</v>
+      </c>
+      <c r="Q36">
+        <v>1.002611054401833</v>
+      </c>
+      <c r="R36">
+        <v>1.005002448996666</v>
+      </c>
+      <c r="S36">
+        <v>1.005002448996666</v>
+      </c>
+      <c r="T36">
+        <v>1.001499513570854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9975400308108802</v>
+      </c>
+      <c r="D37">
+        <v>1.009431322878932</v>
+      </c>
+      <c r="E37">
+        <v>0.9773239618550722</v>
+      </c>
+      <c r="F37">
+        <v>1.003847067411719</v>
+      </c>
+      <c r="G37">
+        <v>1.001667525785065</v>
+      </c>
+      <c r="H37">
+        <v>1.00719998665971</v>
+      </c>
+      <c r="I37">
+        <v>1.001667525785065</v>
+      </c>
+      <c r="J37">
+        <v>0.9773239618550722</v>
+      </c>
+      <c r="K37">
+        <v>0.9773239618550722</v>
+      </c>
+      <c r="L37">
+        <v>1.00719998665971</v>
+      </c>
+      <c r="M37">
+        <v>1.004433756222388</v>
+      </c>
+      <c r="N37">
+        <v>1.004433756222388</v>
+      </c>
+      <c r="O37">
+        <v>1.002135847751885</v>
+      </c>
+      <c r="P37">
+        <v>0.9953971580999493</v>
+      </c>
+      <c r="Q37">
+        <v>0.9953971580999493</v>
+      </c>
+      <c r="R37">
+        <v>0.9908788590387301</v>
+      </c>
+      <c r="S37">
+        <v>0.9908788590387301</v>
+      </c>
+      <c r="T37">
+        <v>0.9995016492335633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9865029385022321</v>
+      </c>
+      <c r="D38">
+        <v>1.006854354290903</v>
+      </c>
+      <c r="E38">
+        <v>1.06923341485917</v>
+      </c>
+      <c r="F38">
+        <v>0.9879419183270389</v>
+      </c>
+      <c r="G38">
+        <v>0.985785025820679</v>
+      </c>
+      <c r="H38">
+        <v>0.9953769325373885</v>
+      </c>
+      <c r="I38">
+        <v>0.985785025820679</v>
+      </c>
+      <c r="J38">
+        <v>1.06923341485917</v>
+      </c>
+      <c r="K38">
+        <v>1.06923341485917</v>
+      </c>
+      <c r="L38">
+        <v>0.9953769325373885</v>
+      </c>
+      <c r="M38">
+        <v>0.9905809791790336</v>
+      </c>
+      <c r="N38">
+        <v>0.9905809791790336</v>
+      </c>
+      <c r="O38">
+        <v>0.9892216322867665</v>
+      </c>
+      <c r="P38">
+        <v>1.016798457739079</v>
+      </c>
+      <c r="Q38">
+        <v>1.016798457739079</v>
+      </c>
+      <c r="R38">
+        <v>1.029907197019102</v>
+      </c>
+      <c r="S38">
+        <v>1.029907197019102</v>
+      </c>
+      <c r="T38">
+        <v>1.005282430722902</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9724044151986779</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9743350233179975</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.21638310321099</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9772238963891224</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9730269157093803</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9343433287167735</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9730269157093803</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.21638310321099</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.21638310321099</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9343433287167735</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9536851222130769</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9536851222130769</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9599248865416105</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.041251115879048</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.041251115879048</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.085034112712033</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.085034112712033</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.007952780423824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8999164159381909</v>
+      </c>
+      <c r="D40">
+        <v>0.9074168648030323</v>
+      </c>
+      <c r="E40">
+        <v>1.423128625156453</v>
+      </c>
+      <c r="F40">
+        <v>1.010642234754907</v>
+      </c>
+      <c r="G40">
+        <v>0.8186711748844667</v>
+      </c>
+      <c r="H40">
+        <v>0.9236438266857054</v>
+      </c>
+      <c r="I40">
+        <v>0.8186711748844667</v>
+      </c>
+      <c r="J40">
+        <v>1.423128625156453</v>
+      </c>
+      <c r="K40">
+        <v>1.423128625156453</v>
+      </c>
+      <c r="L40">
+        <v>0.9236438266857054</v>
+      </c>
+      <c r="M40">
+        <v>0.871157500785086</v>
+      </c>
+      <c r="N40">
+        <v>0.871157500785086</v>
+      </c>
+      <c r="O40">
+        <v>0.8807438058361209</v>
+      </c>
+      <c r="P40">
+        <v>1.055147875575542</v>
+      </c>
+      <c r="Q40">
+        <v>1.055147875575542</v>
+      </c>
+      <c r="R40">
+        <v>1.14714306297077</v>
+      </c>
+      <c r="S40">
+        <v>1.14714306297077</v>
+      </c>
+      <c r="T40">
+        <v>0.9972365237037927</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9916675291385348</v>
+      </c>
+      <c r="D41">
+        <v>1.071405843981446</v>
+      </c>
+      <c r="E41">
+        <v>0.9754253577221432</v>
+      </c>
+      <c r="F41">
+        <v>0.9982230895034724</v>
+      </c>
+      <c r="G41">
+        <v>1.024918315093599</v>
+      </c>
+      <c r="H41">
+        <v>0.9990244954690927</v>
+      </c>
+      <c r="I41">
+        <v>1.024918315093599</v>
+      </c>
+      <c r="J41">
+        <v>0.9754253577221432</v>
+      </c>
+      <c r="K41">
+        <v>0.9754253577221432</v>
+      </c>
+      <c r="L41">
+        <v>0.9990244954690927</v>
+      </c>
+      <c r="M41">
+        <v>1.011971405281346</v>
+      </c>
+      <c r="N41">
+        <v>1.011971405281346</v>
+      </c>
+      <c r="O41">
+        <v>1.005203446567076</v>
+      </c>
+      <c r="P41">
+        <v>0.9997893894282784</v>
+      </c>
+      <c r="Q41">
+        <v>0.9997893894282784</v>
+      </c>
+      <c r="R41">
+        <v>0.9936983815017446</v>
+      </c>
+      <c r="S41">
+        <v>0.9936983815017446</v>
+      </c>
+      <c r="T41">
+        <v>1.010110771818048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.5860716518029614</v>
+      </c>
+      <c r="D42">
+        <v>1.266810070637757</v>
+      </c>
+      <c r="E42">
+        <v>1.516209914713257</v>
+      </c>
+      <c r="F42">
+        <v>1.153994465635771</v>
+      </c>
+      <c r="G42">
+        <v>0.4097838808862532</v>
+      </c>
+      <c r="H42">
+        <v>1.075714123273442</v>
+      </c>
+      <c r="I42">
+        <v>0.4097838808862532</v>
+      </c>
+      <c r="J42">
+        <v>1.516209914713257</v>
+      </c>
+      <c r="K42">
+        <v>1.516209914713257</v>
+      </c>
+      <c r="L42">
+        <v>1.075714123273442</v>
+      </c>
+      <c r="M42">
+        <v>0.7427490020798475</v>
+      </c>
+      <c r="N42">
+        <v>0.7427490020798475</v>
+      </c>
+      <c r="O42">
+        <v>0.6905232186542188</v>
+      </c>
+      <c r="P42">
+        <v>1.000569306290984</v>
+      </c>
+      <c r="Q42">
+        <v>1.000569306290984</v>
+      </c>
+      <c r="R42">
+        <v>1.129479458396552</v>
+      </c>
+      <c r="S42">
+        <v>1.129479458396552</v>
+      </c>
+      <c r="T42">
+        <v>1.001430684491574</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.061305434390841</v>
+        <v>0.9972066739521841</v>
       </c>
       <c r="D3">
-        <v>0.961359392625763</v>
+        <v>1.018506802121561</v>
       </c>
       <c r="E3">
-        <v>1.012092100429928</v>
+        <v>0.9967827858611295</v>
       </c>
       <c r="F3">
-        <v>1.061305434390841</v>
+        <v>0.9995421388781625</v>
       </c>
       <c r="G3">
-        <v>0.9806445025432544</v>
+        <v>0.9953568005716266</v>
       </c>
       <c r="H3">
-        <v>0.9641418518803565</v>
+        <v>1.001576968318909</v>
       </c>
       <c r="I3">
-        <v>1.017132792480926</v>
+        <v>0.9953568005716266</v>
       </c>
       <c r="J3">
-        <v>0.961359392625763</v>
+        <v>0.9967827858611295</v>
       </c>
       <c r="K3">
-        <v>1.061305434390841</v>
+        <v>0.9967827858611295</v>
       </c>
       <c r="L3">
-        <v>1.012092100429928</v>
+        <v>1.001576968318909</v>
       </c>
       <c r="M3">
-        <v>0.9867257465278454</v>
+        <v>0.9984668844452678</v>
       </c>
       <c r="N3">
-        <v>0.9867257465278454</v>
+        <v>0.9984668844452678</v>
       </c>
       <c r="O3">
-        <v>0.9791977816453491</v>
+        <v>0.9980468142809066</v>
       </c>
       <c r="P3">
-        <v>1.011585642482177</v>
+        <v>0.9979055182505551</v>
       </c>
       <c r="Q3">
-        <v>1.011585642482177</v>
+        <v>0.9979055182505551</v>
       </c>
       <c r="R3">
-        <v>1.024015590459343</v>
+        <v>0.9976248351531987</v>
       </c>
       <c r="S3">
-        <v>1.024015590459343</v>
+        <v>0.9976248351531987</v>
       </c>
       <c r="T3">
-        <v>0.9994460123918448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.001495361617262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.114178441069081</v>
+        <v>0.8999164159381909</v>
       </c>
       <c r="D4">
-        <v>0.9226773065079716</v>
+        <v>0.9074168648030323</v>
       </c>
       <c r="E4">
-        <v>1.022547077055109</v>
+        <v>1.423128625156453</v>
       </c>
       <c r="F4">
-        <v>1.114178441069081</v>
+        <v>1.010642234754907</v>
       </c>
       <c r="G4">
-        <v>0.9695121302760342</v>
+        <v>0.8186711748844667</v>
       </c>
       <c r="H4">
-        <v>0.9310900271791913</v>
+        <v>0.9236438266857054</v>
       </c>
       <c r="I4">
-        <v>1.032699900549426</v>
+        <v>0.8186711748844667</v>
       </c>
       <c r="J4">
-        <v>0.9226773065079716</v>
+        <v>1.423128625156453</v>
       </c>
       <c r="K4">
-        <v>1.114178441069081</v>
+        <v>1.423128625156453</v>
       </c>
       <c r="L4">
-        <v>1.022547077055109</v>
+        <v>0.9236438266857054</v>
       </c>
       <c r="M4">
-        <v>0.9726121917815402</v>
+        <v>0.871157500785086</v>
       </c>
       <c r="N4">
-        <v>0.9726121917815402</v>
+        <v>0.871157500785086</v>
       </c>
       <c r="O4">
-        <v>0.958771470247424</v>
+        <v>0.8807438058361209</v>
       </c>
       <c r="P4">
-        <v>1.019800941544054</v>
+        <v>1.055147875575542</v>
       </c>
       <c r="Q4">
-        <v>1.019800941544054</v>
+        <v>1.055147875575542</v>
       </c>
       <c r="R4">
-        <v>1.043395316425311</v>
+        <v>1.14714306297077</v>
       </c>
       <c r="S4">
-        <v>1.043395316425311</v>
+        <v>1.14714306297077</v>
       </c>
       <c r="T4">
-        <v>0.9987841471061355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9972365237037927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.22565920466436</v>
+        <v>0.7856436992529879</v>
       </c>
       <c r="D5">
-        <v>0.8556240651348643</v>
+        <v>1.907585893369175</v>
       </c>
       <c r="E5">
-        <v>1.044770194952162</v>
+        <v>0.918231362664629</v>
       </c>
       <c r="F5">
-        <v>1.22565920466436</v>
+        <v>1.015554440670027</v>
       </c>
       <c r="G5">
-        <v>0.9479631414504552</v>
+        <v>0.7667114344875893</v>
       </c>
       <c r="H5">
-        <v>0.8696030663171523</v>
+        <v>1.08478847159366</v>
       </c>
       <c r="I5">
-        <v>1.063541187376979</v>
+        <v>0.7667114344875893</v>
       </c>
       <c r="J5">
-        <v>0.8556240651348643</v>
+        <v>0.918231362664629</v>
       </c>
       <c r="K5">
-        <v>1.22565920466436</v>
+        <v>0.918231362664629</v>
       </c>
       <c r="L5">
-        <v>1.044770194952162</v>
+        <v>1.08478847159366</v>
       </c>
       <c r="M5">
-        <v>0.9501971300435129</v>
+        <v>0.9257499530406246</v>
       </c>
       <c r="N5">
-        <v>0.9501971300435129</v>
+        <v>0.9257499530406246</v>
       </c>
       <c r="O5">
-        <v>0.9233324421347261</v>
+        <v>0.8790478684447457</v>
       </c>
       <c r="P5">
-        <v>1.042017821583795</v>
+        <v>0.9232437562486261</v>
       </c>
       <c r="Q5">
-        <v>1.042017821583795</v>
+        <v>0.9232437562486261</v>
       </c>
       <c r="R5">
-        <v>1.087928167353936</v>
+        <v>0.9219906578526268</v>
       </c>
       <c r="S5">
-        <v>1.087928167353936</v>
+        <v>0.9219906578526268</v>
       </c>
       <c r="T5">
-        <v>1.001193476649329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.079752550339678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.399948354779962</v>
+        <v>0.4140694772669542</v>
       </c>
       <c r="D6">
-        <v>0.7835818148066434</v>
+        <v>5.427549206198611</v>
       </c>
       <c r="E6">
-        <v>1.145433046714429</v>
+        <v>0.4597322949250048</v>
       </c>
       <c r="F6">
-        <v>1.399948354779962</v>
+        <v>0.8003632056451455</v>
       </c>
       <c r="G6">
-        <v>0.8809138558080087</v>
+        <v>0.3982503006320758</v>
       </c>
       <c r="H6">
-        <v>0.8207716909490552</v>
+        <v>1.041718704087067</v>
       </c>
       <c r="I6">
-        <v>1.082577722370668</v>
+        <v>0.3982503006320758</v>
       </c>
       <c r="J6">
-        <v>0.7835818148066434</v>
+        <v>0.4597322949250048</v>
       </c>
       <c r="K6">
-        <v>1.399948354779962</v>
+        <v>0.4597322949250048</v>
       </c>
       <c r="L6">
-        <v>1.145433046714429</v>
+        <v>1.041718704087067</v>
       </c>
       <c r="M6">
-        <v>0.9645074307605362</v>
+        <v>0.7199845023595715</v>
       </c>
       <c r="N6">
-        <v>0.9645074307605362</v>
+        <v>0.7199845023595715</v>
       </c>
       <c r="O6">
-        <v>0.9165955174900425</v>
+        <v>0.618012827328699</v>
       </c>
       <c r="P6">
-        <v>1.109654405433678</v>
+        <v>0.6332337665480492</v>
       </c>
       <c r="Q6">
-        <v>1.109654405433678</v>
+        <v>0.6332337665480492</v>
       </c>
       <c r="R6">
-        <v>1.182227892770249</v>
+        <v>0.5898583986422881</v>
       </c>
       <c r="S6">
-        <v>1.182227892770249</v>
+        <v>0.5898583986422881</v>
       </c>
       <c r="T6">
-        <v>1.018871080904795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.423613864792476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.998788572747381</v>
+        <v>0.9623339747975366</v>
       </c>
       <c r="D7">
-        <v>0.9987877350320561</v>
+        <v>0.9811744348572776</v>
       </c>
       <c r="E7">
-        <v>1.000463486292424</v>
+        <v>1.061722737552331</v>
       </c>
       <c r="F7">
-        <v>0.998788572747381</v>
+        <v>1.018339241863306</v>
       </c>
       <c r="G7">
-        <v>1.008059194881486</v>
+        <v>0.9548128718540917</v>
       </c>
       <c r="H7">
-        <v>0.9987077797664125</v>
+        <v>1.012817003728595</v>
       </c>
       <c r="I7">
-        <v>0.9997652167074775</v>
+        <v>0.9548128718540917</v>
       </c>
       <c r="J7">
-        <v>0.9987877350320561</v>
+        <v>1.061722737552331</v>
       </c>
       <c r="K7">
-        <v>0.998788572747381</v>
+        <v>1.061722737552331</v>
       </c>
       <c r="L7">
-        <v>1.000463486292424</v>
+        <v>1.012817003728595</v>
       </c>
       <c r="M7">
-        <v>0.9996256106622401</v>
+        <v>0.9838149377913432</v>
       </c>
       <c r="N7">
-        <v>0.9996256106622401</v>
+        <v>0.9838149377913432</v>
       </c>
       <c r="O7">
-        <v>0.9993196670302975</v>
+        <v>0.9766546167934077</v>
       </c>
       <c r="P7">
-        <v>0.9993465980239536</v>
+        <v>1.009784204378339</v>
       </c>
       <c r="Q7">
-        <v>0.9993465980239536</v>
+        <v>1.009784204378339</v>
       </c>
       <c r="R7">
-        <v>0.9992070917048105</v>
+        <v>1.022768837671837</v>
       </c>
       <c r="S7">
-        <v>0.9992070917048105</v>
+        <v>1.022768837671837</v>
       </c>
       <c r="T7">
-        <v>1.000761997571206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9985333774421896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9967827858611289</v>
+        <v>0.9975400308108802</v>
       </c>
       <c r="D8">
-        <v>0.9953568005716266</v>
+        <v>1.009431322878932</v>
       </c>
       <c r="E8">
-        <v>1.001576968318909</v>
+        <v>0.9773239618550722</v>
       </c>
       <c r="F8">
-        <v>0.9967827858611289</v>
+        <v>1.003847067411719</v>
       </c>
       <c r="G8">
-        <v>1.018506802121561</v>
+        <v>1.001667525785065</v>
       </c>
       <c r="H8">
-        <v>0.9972066739521848</v>
+        <v>1.00719998665971</v>
       </c>
       <c r="I8">
-        <v>0.9995421388781618</v>
+        <v>1.001667525785065</v>
       </c>
       <c r="J8">
-        <v>0.9953568005716266</v>
+        <v>0.9773239618550722</v>
       </c>
       <c r="K8">
-        <v>0.9967827858611289</v>
+        <v>0.9773239618550722</v>
       </c>
       <c r="L8">
-        <v>1.001576968318909</v>
+        <v>1.00719998665971</v>
       </c>
       <c r="M8">
-        <v>0.9984668844452675</v>
+        <v>1.004433756222388</v>
       </c>
       <c r="N8">
-        <v>0.9984668844452675</v>
+        <v>1.004433756222388</v>
       </c>
       <c r="O8">
-        <v>0.9980468142809066</v>
+        <v>1.002135847751885</v>
       </c>
       <c r="P8">
-        <v>0.9979055182505547</v>
+        <v>0.9953971580999493</v>
       </c>
       <c r="Q8">
-        <v>0.9979055182505547</v>
+        <v>0.9953971580999493</v>
       </c>
       <c r="R8">
-        <v>0.9976248351531982</v>
+        <v>0.9908788590387301</v>
       </c>
       <c r="S8">
-        <v>0.9976248351531982</v>
+        <v>0.9908788590387301</v>
       </c>
       <c r="T8">
-        <v>1.001495361617262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9995016492335633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9956005731166889</v>
+        <v>0.931090027179191</v>
       </c>
       <c r="D9">
-        <v>0.9953917749823895</v>
+        <v>0.9695121302760342</v>
       </c>
       <c r="E9">
-        <v>1.004383107445663</v>
+        <v>1.114178441069082</v>
       </c>
       <c r="F9">
-        <v>0.9956005731166889</v>
+        <v>1.032699900549426</v>
       </c>
       <c r="G9">
-        <v>1.022715468865872</v>
+        <v>0.9226773065079716</v>
       </c>
       <c r="H9">
-        <v>0.9948045873335183</v>
+        <v>1.022547077055109</v>
       </c>
       <c r="I9">
-        <v>1.000049217535798</v>
+        <v>0.9226773065079716</v>
       </c>
       <c r="J9">
-        <v>0.9953917749823895</v>
+        <v>1.114178441069082</v>
       </c>
       <c r="K9">
-        <v>0.9956005731166889</v>
+        <v>1.114178441069082</v>
       </c>
       <c r="L9">
-        <v>1.004383107445663</v>
+        <v>1.022547077055109</v>
       </c>
       <c r="M9">
-        <v>0.9998874412140263</v>
+        <v>0.9726121917815402</v>
       </c>
       <c r="N9">
-        <v>0.9998874412140263</v>
+        <v>0.9726121917815402</v>
       </c>
       <c r="O9">
-        <v>0.9981931565871903</v>
+        <v>0.9587714702474238</v>
       </c>
       <c r="P9">
-        <v>0.9984584851815805</v>
+        <v>1.019800941544054</v>
       </c>
       <c r="Q9">
-        <v>0.9984584851815805</v>
+        <v>1.019800941544054</v>
       </c>
       <c r="R9">
-        <v>0.9977440071653576</v>
+        <v>1.043395316425311</v>
       </c>
       <c r="S9">
-        <v>0.9977440071653576</v>
+        <v>1.043395316425311</v>
       </c>
       <c r="T9">
-        <v>1.002157454879988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9987841471061357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9905088133340177</v>
+        <v>0.3997450552805942</v>
       </c>
       <c r="D10">
-        <v>0.9890792476462749</v>
+        <v>5.531231039774325</v>
       </c>
       <c r="E10">
-        <v>1.006858216041362</v>
+        <v>0.4424752962622275</v>
       </c>
       <c r="F10">
-        <v>0.9905088133340177</v>
+        <v>0.7926254562567235</v>
       </c>
       <c r="G10">
-        <v>1.052731286477841</v>
+        <v>0.4346330990967083</v>
       </c>
       <c r="H10">
-        <v>0.9893101908884733</v>
+        <v>1.036688182302873</v>
       </c>
       <c r="I10">
-        <v>0.9994594322174805</v>
+        <v>0.4346330990967083</v>
       </c>
       <c r="J10">
-        <v>0.9890792476462749</v>
+        <v>0.4424752962622275</v>
       </c>
       <c r="K10">
-        <v>0.9905088133340177</v>
+        <v>0.4424752962622275</v>
       </c>
       <c r="L10">
-        <v>1.006858216041362</v>
+        <v>1.036688182302873</v>
       </c>
       <c r="M10">
-        <v>0.9979687318438186</v>
+        <v>0.7356606406997904</v>
       </c>
       <c r="N10">
-        <v>0.9979687318438186</v>
+        <v>0.7356606406997904</v>
       </c>
       <c r="O10">
-        <v>0.9950825515253702</v>
+        <v>0.6236887788933917</v>
       </c>
       <c r="P10">
-        <v>0.9954820923405516</v>
+        <v>0.6379321925539362</v>
       </c>
       <c r="Q10">
-        <v>0.9954820923405516</v>
+        <v>0.6379321925539362</v>
       </c>
       <c r="R10">
-        <v>0.9942387725889181</v>
+        <v>0.589067968481009</v>
       </c>
       <c r="S10">
-        <v>0.9942387725889181</v>
+        <v>0.589067968481009</v>
       </c>
       <c r="T10">
-        <v>1.004657864434242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.439566354828909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9852429607364324</v>
+        <v>0.8368195089139757</v>
       </c>
       <c r="D11">
-        <v>0.9808029587378355</v>
+        <v>1.043306745641215</v>
       </c>
       <c r="E11">
-        <v>1.014628120218563</v>
+        <v>1.430956038882582</v>
       </c>
       <c r="F11">
-        <v>0.9852429607364324</v>
+        <v>1.031519453752363</v>
       </c>
       <c r="G11">
-        <v>1.080319691980833</v>
+        <v>0.8109131320555255</v>
       </c>
       <c r="H11">
-        <v>0.9826872737276051</v>
+        <v>0.9357567790996884</v>
       </c>
       <c r="I11">
-        <v>0.9994645463837433</v>
+        <v>0.8109131320555255</v>
       </c>
       <c r="J11">
-        <v>0.9808029587378355</v>
+        <v>1.430956038882582</v>
       </c>
       <c r="K11">
-        <v>0.9852429607364324</v>
+        <v>1.430956038882582</v>
       </c>
       <c r="L11">
-        <v>1.014628120218563</v>
+        <v>0.9357567790996884</v>
       </c>
       <c r="M11">
-        <v>0.9977155394781991</v>
+        <v>0.8733349555776069</v>
       </c>
       <c r="N11">
-        <v>0.9977155394781991</v>
+        <v>0.8733349555776069</v>
       </c>
       <c r="O11">
-        <v>0.9927061175613344</v>
+        <v>0.8611631400230632</v>
       </c>
       <c r="P11">
-        <v>0.9935580132309436</v>
+        <v>1.059208650012599</v>
       </c>
       <c r="Q11">
-        <v>0.9935580132309436</v>
+        <v>1.059208650012599</v>
       </c>
       <c r="R11">
-        <v>0.9914792501073157</v>
+        <v>1.152145497230095</v>
       </c>
       <c r="S11">
-        <v>0.9914792501073157</v>
+        <v>1.152145497230095</v>
       </c>
       <c r="T11">
-        <v>1.007190925297502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.014878609724225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.641395764440468</v>
+        <v>0.7795523092791034</v>
       </c>
       <c r="D12">
-        <v>0.9738893827414491</v>
+        <v>2.198129526722332</v>
       </c>
       <c r="E12">
-        <v>0.5353156617967509</v>
+        <v>0.809725353601584</v>
       </c>
       <c r="F12">
-        <v>1.641395764440468</v>
+        <v>0.9791202940526308</v>
       </c>
       <c r="G12">
-        <v>0.1133047832786392</v>
+        <v>0.9034067672934677</v>
       </c>
       <c r="H12">
-        <v>1.059500420431431</v>
+        <v>1.078525220831579</v>
       </c>
       <c r="I12">
-        <v>0.9548772783263109</v>
+        <v>0.9034067672934677</v>
       </c>
       <c r="J12">
-        <v>0.9738893827414491</v>
+        <v>0.809725353601584</v>
       </c>
       <c r="K12">
-        <v>1.641395764440468</v>
+        <v>0.809725353601584</v>
       </c>
       <c r="L12">
-        <v>0.5353156617967509</v>
+        <v>1.078525220831579</v>
       </c>
       <c r="M12">
-        <v>0.7546025222691</v>
+        <v>0.9909659940625233</v>
       </c>
       <c r="N12">
-        <v>0.7546025222691</v>
+        <v>0.9909659940625233</v>
       </c>
       <c r="O12">
-        <v>0.8562351549898768</v>
+        <v>0.9204947658013833</v>
       </c>
       <c r="P12">
-        <v>1.050200269659556</v>
+        <v>0.9305524472422103</v>
       </c>
       <c r="Q12">
-        <v>1.050200269659556</v>
+        <v>0.9305524472422103</v>
       </c>
       <c r="R12">
-        <v>1.197999143354784</v>
+        <v>0.9003456738320537</v>
       </c>
       <c r="S12">
-        <v>1.197999143354784</v>
+        <v>0.9003456738320537</v>
       </c>
       <c r="T12">
-        <v>0.8797138818358415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.124743245296783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6424090400447209</v>
+        <v>1.126016291139198</v>
       </c>
       <c r="D13">
-        <v>1.182788715270982</v>
+        <v>0.6886861460431577</v>
       </c>
       <c r="E13">
-        <v>1.305247984152944</v>
+        <v>0.9970293209445963</v>
       </c>
       <c r="F13">
-        <v>0.6424090400447209</v>
+        <v>0.9433328758752554</v>
       </c>
       <c r="G13">
-        <v>1.023986395512487</v>
+        <v>1.339635293903155</v>
       </c>
       <c r="H13">
-        <v>1.071108989185448</v>
+        <v>0.9098323396228842</v>
       </c>
       <c r="I13">
-        <v>1.021615997070116</v>
+        <v>1.339635293903155</v>
       </c>
       <c r="J13">
-        <v>1.182788715270982</v>
+        <v>0.9970293209445963</v>
       </c>
       <c r="K13">
-        <v>0.6424090400447209</v>
+        <v>0.9970293209445963</v>
       </c>
       <c r="L13">
-        <v>1.305247984152944</v>
+        <v>0.9098323396228842</v>
       </c>
       <c r="M13">
-        <v>1.244018349711963</v>
+        <v>1.12473381676302</v>
       </c>
       <c r="N13">
-        <v>1.244018349711963</v>
+        <v>1.12473381676302</v>
       </c>
       <c r="O13">
-        <v>1.186381896203125</v>
+        <v>1.125161308221746</v>
       </c>
       <c r="P13">
-        <v>1.043481913156216</v>
+        <v>1.082165651490212</v>
       </c>
       <c r="Q13">
-        <v>1.043481913156216</v>
+        <v>1.082165651490212</v>
       </c>
       <c r="R13">
-        <v>0.9432136948783421</v>
+        <v>1.060881568853808</v>
       </c>
       <c r="S13">
-        <v>0.9432136948783421</v>
+        <v>1.060881568853808</v>
       </c>
       <c r="T13">
-        <v>1.04119285353945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000755377921374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8792445411765468</v>
+        <v>0.0002563127000000003</v>
       </c>
       <c r="D14">
-        <v>1.119667219287633</v>
+        <v>9.125768799999991</v>
       </c>
       <c r="E14">
-        <v>0.7809792423425446</v>
+        <v>0.01683869900000001</v>
       </c>
       <c r="F14">
-        <v>0.8792445411765468</v>
+        <v>0.5813490999999996</v>
       </c>
       <c r="G14">
-        <v>0.05789578805401007</v>
+        <v>0.0007560730099999988</v>
       </c>
       <c r="H14">
-        <v>1.521176470293142</v>
+        <v>1.002098099999999</v>
       </c>
       <c r="I14">
-        <v>0.8088994013775033</v>
+        <v>0.0007560730099999988</v>
       </c>
       <c r="J14">
-        <v>1.119667219287633</v>
+        <v>0.01683869900000001</v>
       </c>
       <c r="K14">
-        <v>0.8792445411765468</v>
+        <v>0.01683869900000001</v>
       </c>
       <c r="L14">
-        <v>0.7809792423425446</v>
+        <v>1.002098099999999</v>
       </c>
       <c r="M14">
-        <v>0.9503232308150887</v>
+        <v>0.5014270865049995</v>
       </c>
       <c r="N14">
-        <v>0.9503232308150887</v>
+        <v>0.5014270865049995</v>
       </c>
       <c r="O14">
-        <v>1.14060764397444</v>
+        <v>0.334370161903333</v>
       </c>
       <c r="P14">
-        <v>0.9266303342689081</v>
+        <v>0.339897624003333</v>
       </c>
       <c r="Q14">
-        <v>0.9266303342689081</v>
+        <v>0.339897624003333</v>
       </c>
       <c r="R14">
-        <v>0.9147838859958177</v>
+        <v>0.2591328927524997</v>
       </c>
       <c r="S14">
-        <v>0.9147838859958177</v>
+        <v>0.2591328927524997</v>
       </c>
       <c r="T14">
-        <v>0.8613104437552299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.787844514118331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.086395609963157</v>
+        <v>0.39644956</v>
       </c>
       <c r="D15">
-        <v>2.080174568926315</v>
+        <v>0.13450162</v>
       </c>
       <c r="E15">
-        <v>0.9445203895218965</v>
+        <v>0.021602411</v>
       </c>
       <c r="F15">
-        <v>1.086395609963157</v>
+        <v>1.340757</v>
       </c>
       <c r="G15">
-        <v>0.8260958226737389</v>
+        <v>0.031132085</v>
       </c>
       <c r="H15">
-        <v>0.9972955378836347</v>
+        <v>3.0422768</v>
       </c>
       <c r="I15">
-        <v>0.9654369733219197</v>
+        <v>0.031132085</v>
       </c>
       <c r="J15">
-        <v>2.080174568926315</v>
+        <v>0.021602411</v>
       </c>
       <c r="K15">
-        <v>1.086395609963157</v>
+        <v>0.021602411</v>
       </c>
       <c r="L15">
-        <v>0.9445203895218965</v>
+        <v>3.0422768</v>
       </c>
       <c r="M15">
-        <v>1.512347479224106</v>
+        <v>1.5367044425</v>
       </c>
       <c r="N15">
-        <v>1.512347479224106</v>
+        <v>1.5367044425</v>
       </c>
       <c r="O15">
-        <v>1.340663498777282</v>
+        <v>1.156619481666667</v>
       </c>
       <c r="P15">
-        <v>1.37036352280379</v>
+        <v>1.031670432</v>
       </c>
       <c r="Q15">
-        <v>1.370363522803789</v>
+        <v>1.031670432</v>
       </c>
       <c r="R15">
-        <v>1.299371544593631</v>
+        <v>0.7791534267499999</v>
       </c>
       <c r="S15">
-        <v>1.299371544593631</v>
+        <v>0.7791534267499999</v>
       </c>
       <c r="T15">
-        <v>1.14998648371511</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.8277865793333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.012176632781168</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="D16">
-        <v>1.00150587474776</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="E16">
-        <v>0.9941506556765687</v>
+        <v>7.6546011</v>
       </c>
       <c r="F16">
-        <v>1.012176632781168</v>
+        <v>0.60377661</v>
       </c>
       <c r="G16">
-        <v>1.004480210937239</v>
+        <v>0.00064866866</v>
       </c>
       <c r="H16">
-        <v>1.00020374834734</v>
+        <v>0.026860481</v>
       </c>
       <c r="I16">
-        <v>0.9964799589350458</v>
+        <v>0.00064866866</v>
       </c>
       <c r="J16">
-        <v>1.00150587474776</v>
+        <v>7.6546011</v>
       </c>
       <c r="K16">
-        <v>1.012176632781168</v>
+        <v>7.6546011</v>
       </c>
       <c r="L16">
-        <v>0.9941506556765687</v>
+        <v>0.026860481</v>
       </c>
       <c r="M16">
-        <v>0.9978282652121645</v>
+        <v>0.01375457483</v>
       </c>
       <c r="N16">
-        <v>0.9978282652121645</v>
+        <v>0.01375457483</v>
       </c>
       <c r="O16">
-        <v>0.9986200929238898</v>
+        <v>0.02822017322</v>
       </c>
       <c r="P16">
-        <v>1.002611054401832</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="Q16">
-        <v>1.002611054401832</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="R16">
-        <v>1.005002448996666</v>
+        <v>3.834177837415</v>
       </c>
       <c r="S16">
-        <v>1.005002448996666</v>
+        <v>3.834177837415</v>
       </c>
       <c r="T16">
-        <v>1.001499513570854</v>
+        <v>1.391753247526667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9773239618550705</v>
+        <v>1.3307885</v>
       </c>
       <c r="D17">
-        <v>1.001667525785066</v>
+        <v>0.009514487800000001</v>
       </c>
       <c r="E17">
-        <v>1.007199986659709</v>
+        <v>0.016795344</v>
       </c>
       <c r="F17">
-        <v>0.9773239618550705</v>
+        <v>0.60867839</v>
       </c>
       <c r="G17">
-        <v>1.009431322878932</v>
+        <v>0.37890006</v>
       </c>
       <c r="H17">
-        <v>0.9975400308108801</v>
+        <v>1.2854667</v>
       </c>
       <c r="I17">
-        <v>1.003847067411719</v>
+        <v>0.37890006</v>
       </c>
       <c r="J17">
-        <v>1.001667525785066</v>
+        <v>0.016795344</v>
       </c>
       <c r="K17">
-        <v>0.9773239618550705</v>
+        <v>0.016795344</v>
       </c>
       <c r="L17">
-        <v>1.007199986659709</v>
+        <v>1.2854667</v>
       </c>
       <c r="M17">
-        <v>1.004433756222388</v>
+        <v>0.83218338</v>
       </c>
       <c r="N17">
-        <v>1.004433756222388</v>
+        <v>0.83218338</v>
       </c>
       <c r="O17">
-        <v>1.002135847751885</v>
+        <v>0.9983850866666666</v>
       </c>
       <c r="P17">
-        <v>0.9953971580999484</v>
+        <v>0.560387368</v>
       </c>
       <c r="Q17">
-        <v>0.9953971580999484</v>
+        <v>0.560387368</v>
       </c>
       <c r="R17">
-        <v>0.990878859038729</v>
+        <v>0.424489362</v>
       </c>
       <c r="S17">
-        <v>0.990878859038729</v>
+        <v>0.424489362</v>
       </c>
       <c r="T17">
-        <v>0.9995016492335628</v>
+        <v>0.6050239136333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.069233414859169</v>
+        <v>0.1979767172602739</v>
       </c>
       <c r="D18">
-        <v>0.9857850258206797</v>
+        <v>0.4247746371698631</v>
       </c>
       <c r="E18">
-        <v>0.9953769325373888</v>
+        <v>2.396889205657536</v>
       </c>
       <c r="F18">
-        <v>1.069233414859169</v>
+        <v>1.416218868767124</v>
       </c>
       <c r="G18">
-        <v>1.006854354290904</v>
+        <v>0.00448124480657534</v>
       </c>
       <c r="H18">
-        <v>0.9865029385022321</v>
+        <v>1.264274525287671</v>
       </c>
       <c r="I18">
-        <v>0.9879419183270389</v>
+        <v>0.00448124480657534</v>
       </c>
       <c r="J18">
-        <v>0.9857850258206797</v>
+        <v>2.396889205657536</v>
       </c>
       <c r="K18">
-        <v>1.069233414859169</v>
+        <v>2.396889205657536</v>
       </c>
       <c r="L18">
-        <v>0.9953769325373888</v>
+        <v>1.264274525287671</v>
       </c>
       <c r="M18">
-        <v>0.9905809791790343</v>
+        <v>0.6343778850471234</v>
       </c>
       <c r="N18">
-        <v>0.9905809791790343</v>
+        <v>0.6343778850471234</v>
       </c>
       <c r="O18">
-        <v>0.989221632286767</v>
+        <v>0.4889108291181736</v>
       </c>
       <c r="P18">
-        <v>1.016798457739079</v>
+        <v>1.221881658583928</v>
       </c>
       <c r="Q18">
-        <v>1.016798457739079</v>
+        <v>1.221881658583927</v>
       </c>
       <c r="R18">
-        <v>1.029907197019102</v>
+        <v>1.51563354535233</v>
       </c>
       <c r="S18">
-        <v>1.029907197019102</v>
+        <v>1.51563354535233</v>
       </c>
       <c r="T18">
-        <v>1.005282430722902</v>
+        <v>0.9507691998248405</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.21638310321099</v>
+        <v>1.090353289768421</v>
       </c>
       <c r="D19">
-        <v>0.9730269157093803</v>
+        <v>1.267895143540527</v>
       </c>
       <c r="E19">
-        <v>0.9343433287167735</v>
+        <v>1.127957539631579</v>
       </c>
       <c r="F19">
-        <v>1.21638310321099</v>
+        <v>0.8929287299999999</v>
       </c>
       <c r="G19">
-        <v>0.9743350233179975</v>
+        <v>0.1946733262157895</v>
       </c>
       <c r="H19">
-        <v>0.9724044151986779</v>
+        <v>1.100241909421053</v>
       </c>
       <c r="I19">
-        <v>0.9772238963891224</v>
+        <v>0.1946733262157895</v>
       </c>
       <c r="J19">
-        <v>0.9730269157093803</v>
+        <v>1.127957539631579</v>
       </c>
       <c r="K19">
-        <v>1.21638310321099</v>
+        <v>1.127957539631579</v>
       </c>
       <c r="L19">
-        <v>0.9343433287167735</v>
+        <v>1.100241909421053</v>
       </c>
       <c r="M19">
-        <v>0.9536851222130769</v>
+        <v>0.6474576178184211</v>
       </c>
       <c r="N19">
-        <v>0.9536851222130769</v>
+        <v>0.6474576178184211</v>
       </c>
       <c r="O19">
-        <v>0.9599248865416105</v>
+        <v>0.7950895084684211</v>
       </c>
       <c r="P19">
-        <v>1.041251115879048</v>
+        <v>0.8076242584228072</v>
       </c>
       <c r="Q19">
-        <v>1.041251115879048</v>
+        <v>0.8076242584228072</v>
       </c>
       <c r="R19">
-        <v>1.085034112712033</v>
+        <v>0.8877075787250002</v>
       </c>
       <c r="S19">
-        <v>1.085034112712033</v>
+        <v>0.8877075787250002</v>
       </c>
       <c r="T19">
-        <v>1.007952780423824</v>
+        <v>0.9456749897628948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.5585022057042105</v>
+      </c>
+      <c r="D20">
+        <v>2.815567712421053</v>
+      </c>
+      <c r="E20">
+        <v>0.8653526162999999</v>
+      </c>
+      <c r="F20">
+        <v>0.8357901636842106</v>
+      </c>
+      <c r="G20">
+        <v>1.715860736600526</v>
+      </c>
+      <c r="H20">
+        <v>1.209510174210526</v>
+      </c>
+      <c r="I20">
+        <v>1.715860736600526</v>
+      </c>
+      <c r="J20">
+        <v>0.8653526162999999</v>
+      </c>
+      <c r="K20">
+        <v>0.8653526162999999</v>
+      </c>
+      <c r="L20">
+        <v>1.209510174210526</v>
+      </c>
+      <c r="M20">
+        <v>1.462685455405526</v>
+      </c>
+      <c r="N20">
+        <v>1.462685455405526</v>
+      </c>
+      <c r="O20">
+        <v>1.161291038838421</v>
+      </c>
+      <c r="P20">
+        <v>1.263574509037017</v>
+      </c>
+      <c r="Q20">
+        <v>1.263574509037017</v>
+      </c>
+      <c r="R20">
+        <v>1.164019035852763</v>
+      </c>
+      <c r="S20">
+        <v>1.164019035852763</v>
+      </c>
+      <c r="T20">
+        <v>1.333430601486755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.521176470293142</v>
+      </c>
+      <c r="D21">
+        <v>0.05789578805400999</v>
+      </c>
+      <c r="E21">
+        <v>0.8792445411765465</v>
+      </c>
+      <c r="F21">
+        <v>0.8088994013775033</v>
+      </c>
+      <c r="G21">
+        <v>1.119667219287633</v>
+      </c>
+      <c r="H21">
+        <v>0.7809792423425447</v>
+      </c>
+      <c r="I21">
+        <v>1.119667219287633</v>
+      </c>
+      <c r="J21">
+        <v>0.8792445411765465</v>
+      </c>
+      <c r="K21">
+        <v>0.8792445411765465</v>
+      </c>
+      <c r="L21">
+        <v>0.7809792423425447</v>
+      </c>
+      <c r="M21">
+        <v>0.9503232308150886</v>
+      </c>
+      <c r="N21">
+        <v>0.9503232308150886</v>
+      </c>
+      <c r="O21">
+        <v>1.14060764397444</v>
+      </c>
+      <c r="P21">
+        <v>0.926630334268908</v>
+      </c>
+      <c r="Q21">
+        <v>0.926630334268908</v>
+      </c>
+      <c r="R21">
+        <v>0.9147838859958176</v>
+      </c>
+      <c r="S21">
+        <v>0.9147838859958176</v>
+      </c>
+      <c r="T21">
+        <v>0.8613104437552299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9972955378836347</v>
+      </c>
+      <c r="D22">
+        <v>0.8260958226737389</v>
+      </c>
+      <c r="E22">
+        <v>1.086395609963157</v>
+      </c>
+      <c r="F22">
+        <v>0.9654369733219197</v>
+      </c>
+      <c r="G22">
+        <v>2.080174568926314</v>
+      </c>
+      <c r="H22">
+        <v>0.9445203895218965</v>
+      </c>
+      <c r="I22">
+        <v>2.080174568926314</v>
+      </c>
+      <c r="J22">
+        <v>1.086395609963157</v>
+      </c>
+      <c r="K22">
+        <v>1.086395609963157</v>
+      </c>
+      <c r="L22">
+        <v>0.9445203895218965</v>
+      </c>
+      <c r="M22">
+        <v>1.512347479224105</v>
+      </c>
+      <c r="N22">
+        <v>1.512347479224105</v>
+      </c>
+      <c r="O22">
+        <v>1.340663498777282</v>
+      </c>
+      <c r="P22">
+        <v>1.370363522803789</v>
+      </c>
+      <c r="Q22">
+        <v>1.370363522803789</v>
+      </c>
+      <c r="R22">
+        <v>1.299371544593631</v>
+      </c>
+      <c r="S22">
+        <v>1.299371544593631</v>
+      </c>
+      <c r="T22">
+        <v>1.14998648371511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.059500420431431</v>
+      </c>
+      <c r="D23">
+        <v>0.113304783278639</v>
+      </c>
+      <c r="E23">
+        <v>1.641395764440468</v>
+      </c>
+      <c r="F23">
+        <v>0.9548772783263109</v>
+      </c>
+      <c r="G23">
+        <v>0.973889382741449</v>
+      </c>
+      <c r="H23">
+        <v>0.5353156617967508</v>
+      </c>
+      <c r="I23">
+        <v>0.973889382741449</v>
+      </c>
+      <c r="J23">
+        <v>1.641395764440468</v>
+      </c>
+      <c r="K23">
+        <v>1.641395764440468</v>
+      </c>
+      <c r="L23">
+        <v>0.5353156617967508</v>
+      </c>
+      <c r="M23">
+        <v>0.7546025222691</v>
+      </c>
+      <c r="N23">
+        <v>0.7546025222691</v>
+      </c>
+      <c r="O23">
+        <v>0.8562351549898769</v>
+      </c>
+      <c r="P23">
+        <v>1.050200269659556</v>
+      </c>
+      <c r="Q23">
+        <v>1.050200269659556</v>
+      </c>
+      <c r="R23">
+        <v>1.197999143354784</v>
+      </c>
+      <c r="S23">
+        <v>1.197999143354784</v>
+      </c>
+      <c r="T23">
+        <v>0.8797138818358414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.071108989185448</v>
+      </c>
+      <c r="D24">
+        <v>1.023986395512487</v>
+      </c>
+      <c r="E24">
+        <v>0.6424090400447208</v>
+      </c>
+      <c r="F24">
+        <v>1.021615997070116</v>
+      </c>
+      <c r="G24">
+        <v>1.182788715270982</v>
+      </c>
+      <c r="H24">
+        <v>1.305247984152944</v>
+      </c>
+      <c r="I24">
+        <v>1.182788715270982</v>
+      </c>
+      <c r="J24">
+        <v>0.6424090400447208</v>
+      </c>
+      <c r="K24">
+        <v>0.6424090400447208</v>
+      </c>
+      <c r="L24">
+        <v>1.305247984152944</v>
+      </c>
+      <c r="M24">
+        <v>1.244018349711963</v>
+      </c>
+      <c r="N24">
+        <v>1.244018349711963</v>
+      </c>
+      <c r="O24">
+        <v>1.186381896203125</v>
+      </c>
+      <c r="P24">
+        <v>1.043481913156216</v>
+      </c>
+      <c r="Q24">
+        <v>1.043481913156216</v>
+      </c>
+      <c r="R24">
+        <v>0.9432136948783419</v>
+      </c>
+      <c r="S24">
+        <v>0.9432136948783419</v>
+      </c>
+      <c r="T24">
+        <v>1.04119285353945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9155359903802168</v>
+      </c>
+      <c r="D25">
+        <v>0.3052329403744581</v>
+      </c>
+      <c r="E25">
+        <v>1.465704297658399</v>
+      </c>
+      <c r="F25">
+        <v>1.159692609874603</v>
+      </c>
+      <c r="G25">
+        <v>0.4734938094456579</v>
+      </c>
+      <c r="H25">
+        <v>0.8827501878366049</v>
+      </c>
+      <c r="I25">
+        <v>0.4734938094456579</v>
+      </c>
+      <c r="J25">
+        <v>1.465704297658399</v>
+      </c>
+      <c r="K25">
+        <v>1.465704297658399</v>
+      </c>
+      <c r="L25">
+        <v>0.8827501878366049</v>
+      </c>
+      <c r="M25">
+        <v>0.6781219986411313</v>
+      </c>
+      <c r="N25">
+        <v>0.6781219986411313</v>
+      </c>
+      <c r="O25">
+        <v>0.7572599958874932</v>
+      </c>
+      <c r="P25">
+        <v>0.9406494316468873</v>
+      </c>
+      <c r="Q25">
+        <v>0.9406494316468873</v>
+      </c>
+      <c r="R25">
+        <v>1.071913148149765</v>
+      </c>
+      <c r="S25">
+        <v>1.071913148149765</v>
+      </c>
+      <c r="T25">
+        <v>0.8670683059283233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.035344010854263</v>
+      </c>
+      <c r="D26">
+        <v>1.486652146093182</v>
+      </c>
+      <c r="E26">
+        <v>0.8392472005422116</v>
+      </c>
+      <c r="F26">
+        <v>0.9069182891216303</v>
+      </c>
+      <c r="G26">
+        <v>1.164466671418582</v>
+      </c>
+      <c r="H26">
+        <v>0.9874912933711724</v>
+      </c>
+      <c r="I26">
+        <v>1.164466671418582</v>
+      </c>
+      <c r="J26">
+        <v>0.8392472005422116</v>
+      </c>
+      <c r="K26">
+        <v>0.8392472005422116</v>
+      </c>
+      <c r="L26">
+        <v>0.9874912933711724</v>
+      </c>
+      <c r="M26">
+        <v>1.075978982394877</v>
+      </c>
+      <c r="N26">
+        <v>1.075978982394877</v>
+      </c>
+      <c r="O26">
+        <v>1.062433991881339</v>
+      </c>
+      <c r="P26">
+        <v>0.9970683884439886</v>
+      </c>
+      <c r="Q26">
+        <v>0.9970683884439886</v>
+      </c>
+      <c r="R26">
+        <v>0.9576130914685443</v>
+      </c>
+      <c r="S26">
+        <v>0.9576130914685443</v>
+      </c>
+      <c r="T26">
+        <v>1.070019935233507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.100621213723634</v>
+      </c>
+      <c r="D27">
+        <v>1.519857578788818</v>
+      </c>
+      <c r="E27">
+        <v>1.108812494377071</v>
+      </c>
+      <c r="F27">
+        <v>0.8838715130887823</v>
+      </c>
+      <c r="G27">
+        <v>0.5514475846775762</v>
+      </c>
+      <c r="H27">
+        <v>0.9612001211401976</v>
+      </c>
+      <c r="I27">
+        <v>0.5514475846775762</v>
+      </c>
+      <c r="J27">
+        <v>1.108812494377071</v>
+      </c>
+      <c r="K27">
+        <v>1.108812494377071</v>
+      </c>
+      <c r="L27">
+        <v>0.9612001211401976</v>
+      </c>
+      <c r="M27">
+        <v>0.7563238529088869</v>
+      </c>
+      <c r="N27">
+        <v>0.7563238529088869</v>
+      </c>
+      <c r="O27">
+        <v>0.8710896398471357</v>
+      </c>
+      <c r="P27">
+        <v>0.8738200667316152</v>
+      </c>
+      <c r="Q27">
+        <v>0.8738200667316151</v>
+      </c>
+      <c r="R27">
+        <v>0.9325681736429792</v>
+      </c>
+      <c r="S27">
+        <v>0.9325681736429792</v>
+      </c>
+      <c r="T27">
+        <v>1.02096841763268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.7752333278867831</v>
+      </c>
+      <c r="D28">
+        <v>0.975934337443959</v>
+      </c>
+      <c r="E28">
+        <v>1.655077188126614</v>
+      </c>
+      <c r="F28">
+        <v>0.8915767730993511</v>
+      </c>
+      <c r="G28">
+        <v>1.251981855150252</v>
+      </c>
+      <c r="H28">
+        <v>0.7419847322884305</v>
+      </c>
+      <c r="I28">
+        <v>1.251981855150252</v>
+      </c>
+      <c r="J28">
+        <v>1.655077188126614</v>
+      </c>
+      <c r="K28">
+        <v>1.655077188126614</v>
+      </c>
+      <c r="L28">
+        <v>0.7419847322884305</v>
+      </c>
+      <c r="M28">
+        <v>0.9969832937193415</v>
+      </c>
+      <c r="N28">
+        <v>0.9969832937193415</v>
+      </c>
+      <c r="O28">
+        <v>0.923066638441822</v>
+      </c>
+      <c r="P28">
+        <v>1.216347925188432</v>
+      </c>
+      <c r="Q28">
+        <v>1.216347925188432</v>
+      </c>
+      <c r="R28">
+        <v>1.326030240922977</v>
+      </c>
+      <c r="S28">
+        <v>1.326030240922977</v>
+      </c>
+      <c r="T28">
+        <v>1.048631368999231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.033914472868219</v>
+      </c>
+      <c r="D29">
+        <v>0.03954048983561582</v>
+      </c>
+      <c r="E29">
+        <v>1.536876749200917</v>
+      </c>
+      <c r="F29">
+        <v>0.8117648303290737</v>
+      </c>
+      <c r="G29">
+        <v>0.2854213885787953</v>
+      </c>
+      <c r="H29">
+        <v>1.143983236174824</v>
+      </c>
+      <c r="I29">
+        <v>0.2854213885787953</v>
+      </c>
+      <c r="J29">
+        <v>1.536876749200917</v>
+      </c>
+      <c r="K29">
+        <v>1.536876749200917</v>
+      </c>
+      <c r="L29">
+        <v>1.143983236174824</v>
+      </c>
+      <c r="M29">
+        <v>0.7147023123768095</v>
+      </c>
+      <c r="N29">
+        <v>0.7147023123768095</v>
+      </c>
+      <c r="O29">
+        <v>0.821106365873946</v>
+      </c>
+      <c r="P29">
+        <v>0.9887604579848454</v>
+      </c>
+      <c r="Q29">
+        <v>0.9887604579848454</v>
+      </c>
+      <c r="R29">
+        <v>1.125789530788863</v>
+      </c>
+      <c r="S29">
+        <v>1.125789530788863</v>
+      </c>
+      <c r="T29">
+        <v>0.8085835278312409</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8999164159381909</v>
+        <v>0.8239316540349686</v>
       </c>
       <c r="D4">
-        <v>0.9074168648030323</v>
+        <v>1.748517196388051</v>
       </c>
       <c r="E4">
-        <v>1.423128625156453</v>
+        <v>0.91095074800063</v>
       </c>
       <c r="F4">
-        <v>1.010642234754907</v>
+        <v>1.017999216420906</v>
       </c>
       <c r="G4">
-        <v>0.8186711748844667</v>
+        <v>0.7940112022826059</v>
       </c>
       <c r="H4">
-        <v>0.9236438266857054</v>
+        <v>1.077845564255407</v>
       </c>
       <c r="I4">
-        <v>0.8186711748844667</v>
+        <v>0.7940112022826059</v>
       </c>
       <c r="J4">
-        <v>1.423128625156453</v>
+        <v>0.91095074800063</v>
       </c>
       <c r="K4">
-        <v>1.423128625156453</v>
+        <v>0.91095074800063</v>
       </c>
       <c r="L4">
-        <v>0.9236438266857054</v>
+        <v>1.077845564255407</v>
       </c>
       <c r="M4">
-        <v>0.871157500785086</v>
+        <v>0.9359283832690062</v>
       </c>
       <c r="N4">
-        <v>0.871157500785086</v>
+        <v>0.9359283832690062</v>
       </c>
       <c r="O4">
-        <v>0.8807438058361209</v>
+        <v>0.8985961401909938</v>
       </c>
       <c r="P4">
-        <v>1.055147875575542</v>
+        <v>0.9276025048462141</v>
       </c>
       <c r="Q4">
-        <v>1.055147875575542</v>
+        <v>0.9276025048462143</v>
       </c>
       <c r="R4">
-        <v>1.14714306297077</v>
+        <v>0.9234395656348182</v>
       </c>
       <c r="S4">
-        <v>1.14714306297077</v>
+        <v>0.9234395656348182</v>
       </c>
       <c r="T4">
-        <v>0.9972365237037927</v>
+        <v>1.062209263563761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7856436992529879</v>
+        <v>0.6080690754830019</v>
       </c>
       <c r="D5">
-        <v>1.907585893369175</v>
+        <v>2.399188206183299</v>
       </c>
       <c r="E5">
-        <v>0.918231362664629</v>
+        <v>0.951540702077619</v>
       </c>
       <c r="F5">
-        <v>1.015554440670027</v>
+        <v>0.8394626682831196</v>
       </c>
       <c r="G5">
-        <v>0.7667114344875893</v>
+        <v>1.897955301890948</v>
       </c>
       <c r="H5">
-        <v>1.08478847159366</v>
+        <v>1.181718047170233</v>
       </c>
       <c r="I5">
-        <v>0.7667114344875893</v>
+        <v>1.897955301890948</v>
       </c>
       <c r="J5">
-        <v>0.918231362664629</v>
+        <v>0.951540702077619</v>
       </c>
       <c r="K5">
-        <v>0.918231362664629</v>
+        <v>0.951540702077619</v>
       </c>
       <c r="L5">
-        <v>1.08478847159366</v>
+        <v>1.181718047170233</v>
       </c>
       <c r="M5">
-        <v>0.9257499530406246</v>
+        <v>1.53983667453059</v>
       </c>
       <c r="N5">
-        <v>0.9257499530406246</v>
+        <v>1.53983667453059</v>
       </c>
       <c r="O5">
-        <v>0.8790478684447457</v>
+        <v>1.229247474848061</v>
       </c>
       <c r="P5">
-        <v>0.9232437562486261</v>
+        <v>1.343738017046266</v>
       </c>
       <c r="Q5">
-        <v>0.9232437562486261</v>
+        <v>1.343738017046267</v>
       </c>
       <c r="R5">
-        <v>0.9219906578526268</v>
+        <v>1.245688688304105</v>
       </c>
       <c r="S5">
-        <v>0.9219906578526268</v>
+        <v>1.245688688304105</v>
       </c>
       <c r="T5">
-        <v>1.079752550339678</v>
+        <v>1.31298900018137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4140694772669542</v>
+        <v>0.8999164159381909</v>
       </c>
       <c r="D6">
-        <v>5.427549206198611</v>
+        <v>0.9074168648030323</v>
       </c>
       <c r="E6">
-        <v>0.4597322949250048</v>
+        <v>1.423128625156453</v>
       </c>
       <c r="F6">
-        <v>0.8003632056451455</v>
+        <v>1.010642234754907</v>
       </c>
       <c r="G6">
-        <v>0.3982503006320758</v>
+        <v>0.8186711748844667</v>
       </c>
       <c r="H6">
-        <v>1.041718704087067</v>
+        <v>0.9236438266857054</v>
       </c>
       <c r="I6">
-        <v>0.3982503006320758</v>
+        <v>0.8186711748844667</v>
       </c>
       <c r="J6">
-        <v>0.4597322949250048</v>
+        <v>1.423128625156453</v>
       </c>
       <c r="K6">
-        <v>0.4597322949250048</v>
+        <v>1.423128625156453</v>
       </c>
       <c r="L6">
-        <v>1.041718704087067</v>
+        <v>0.9236438266857054</v>
       </c>
       <c r="M6">
-        <v>0.7199845023595715</v>
+        <v>0.871157500785086</v>
       </c>
       <c r="N6">
-        <v>0.7199845023595715</v>
+        <v>0.871157500785086</v>
       </c>
       <c r="O6">
-        <v>0.618012827328699</v>
+        <v>0.8807438058361209</v>
       </c>
       <c r="P6">
-        <v>0.6332337665480492</v>
+        <v>1.055147875575542</v>
       </c>
       <c r="Q6">
-        <v>0.6332337665480492</v>
+        <v>1.055147875575542</v>
       </c>
       <c r="R6">
-        <v>0.5898583986422881</v>
+        <v>1.14714306297077</v>
       </c>
       <c r="S6">
-        <v>0.5898583986422881</v>
+        <v>1.14714306297077</v>
       </c>
       <c r="T6">
-        <v>1.423613864792476</v>
+        <v>0.9972365237037927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9623339747975366</v>
+        <v>0.7856436992529879</v>
       </c>
       <c r="D7">
-        <v>0.9811744348572776</v>
+        <v>1.907585893369175</v>
       </c>
       <c r="E7">
-        <v>1.061722737552331</v>
+        <v>0.918231362664629</v>
       </c>
       <c r="F7">
-        <v>1.018339241863306</v>
+        <v>1.015554440670027</v>
       </c>
       <c r="G7">
-        <v>0.9548128718540917</v>
+        <v>0.7667114344875893</v>
       </c>
       <c r="H7">
-        <v>1.012817003728595</v>
+        <v>1.08478847159366</v>
       </c>
       <c r="I7">
-        <v>0.9548128718540917</v>
+        <v>0.7667114344875893</v>
       </c>
       <c r="J7">
-        <v>1.061722737552331</v>
+        <v>0.918231362664629</v>
       </c>
       <c r="K7">
-        <v>1.061722737552331</v>
+        <v>0.918231362664629</v>
       </c>
       <c r="L7">
-        <v>1.012817003728595</v>
+        <v>1.08478847159366</v>
       </c>
       <c r="M7">
-        <v>0.9838149377913432</v>
+        <v>0.9257499530406246</v>
       </c>
       <c r="N7">
-        <v>0.9838149377913432</v>
+        <v>0.9257499530406246</v>
       </c>
       <c r="O7">
-        <v>0.9766546167934077</v>
+        <v>0.8790478684447457</v>
       </c>
       <c r="P7">
-        <v>1.009784204378339</v>
+        <v>0.9232437562486261</v>
       </c>
       <c r="Q7">
-        <v>1.009784204378339</v>
+        <v>0.9232437562486261</v>
       </c>
       <c r="R7">
-        <v>1.022768837671837</v>
+        <v>0.9219906578526268</v>
       </c>
       <c r="S7">
-        <v>1.022768837671837</v>
+        <v>0.9219906578526268</v>
       </c>
       <c r="T7">
-        <v>0.9985333774421896</v>
+        <v>1.079752550339678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9975400308108802</v>
+        <v>0.4140694772669542</v>
       </c>
       <c r="D8">
-        <v>1.009431322878932</v>
+        <v>5.427549206198611</v>
       </c>
       <c r="E8">
-        <v>0.9773239618550722</v>
+        <v>0.4597322949250048</v>
       </c>
       <c r="F8">
-        <v>1.003847067411719</v>
+        <v>0.8003632056451455</v>
       </c>
       <c r="G8">
-        <v>1.001667525785065</v>
+        <v>0.3982503006320758</v>
       </c>
       <c r="H8">
-        <v>1.00719998665971</v>
+        <v>1.041718704087067</v>
       </c>
       <c r="I8">
-        <v>1.001667525785065</v>
+        <v>0.3982503006320758</v>
       </c>
       <c r="J8">
-        <v>0.9773239618550722</v>
+        <v>0.4597322949250048</v>
       </c>
       <c r="K8">
-        <v>0.9773239618550722</v>
+        <v>0.4597322949250048</v>
       </c>
       <c r="L8">
-        <v>1.00719998665971</v>
+        <v>1.041718704087067</v>
       </c>
       <c r="M8">
-        <v>1.004433756222388</v>
+        <v>0.7199845023595715</v>
       </c>
       <c r="N8">
-        <v>1.004433756222388</v>
+        <v>0.7199845023595715</v>
       </c>
       <c r="O8">
-        <v>1.002135847751885</v>
+        <v>0.618012827328699</v>
       </c>
       <c r="P8">
-        <v>0.9953971580999493</v>
+        <v>0.6332337665480492</v>
       </c>
       <c r="Q8">
-        <v>0.9953971580999493</v>
+        <v>0.6332337665480492</v>
       </c>
       <c r="R8">
-        <v>0.9908788590387301</v>
+        <v>0.5898583986422881</v>
       </c>
       <c r="S8">
-        <v>0.9908788590387301</v>
+        <v>0.5898583986422881</v>
       </c>
       <c r="T8">
-        <v>0.9995016492335633</v>
+        <v>1.423613864792476</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.931090027179191</v>
+        <v>0.9623339747975366</v>
       </c>
       <c r="D9">
-        <v>0.9695121302760342</v>
+        <v>0.9811744348572776</v>
       </c>
       <c r="E9">
-        <v>1.114178441069082</v>
+        <v>1.061722737552331</v>
       </c>
       <c r="F9">
-        <v>1.032699900549426</v>
+        <v>1.018339241863306</v>
       </c>
       <c r="G9">
-        <v>0.9226773065079716</v>
+        <v>0.9548128718540917</v>
       </c>
       <c r="H9">
-        <v>1.022547077055109</v>
+        <v>1.012817003728595</v>
       </c>
       <c r="I9">
-        <v>0.9226773065079716</v>
+        <v>0.9548128718540917</v>
       </c>
       <c r="J9">
-        <v>1.114178441069082</v>
+        <v>1.061722737552331</v>
       </c>
       <c r="K9">
-        <v>1.114178441069082</v>
+        <v>1.061722737552331</v>
       </c>
       <c r="L9">
-        <v>1.022547077055109</v>
+        <v>1.012817003728595</v>
       </c>
       <c r="M9">
-        <v>0.9726121917815402</v>
+        <v>0.9838149377913432</v>
       </c>
       <c r="N9">
-        <v>0.9726121917815402</v>
+        <v>0.9838149377913432</v>
       </c>
       <c r="O9">
-        <v>0.9587714702474238</v>
+        <v>0.9766546167934077</v>
       </c>
       <c r="P9">
-        <v>1.019800941544054</v>
+        <v>1.009784204378339</v>
       </c>
       <c r="Q9">
-        <v>1.019800941544054</v>
+        <v>1.009784204378339</v>
       </c>
       <c r="R9">
-        <v>1.043395316425311</v>
+        <v>1.022768837671837</v>
       </c>
       <c r="S9">
-        <v>1.043395316425311</v>
+        <v>1.022768837671837</v>
       </c>
       <c r="T9">
-        <v>0.9987841471061357</v>
+        <v>0.9985333774421896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.3997450552805942</v>
+        <v>0.9975400308108802</v>
       </c>
       <c r="D10">
-        <v>5.531231039774325</v>
+        <v>1.009431322878932</v>
       </c>
       <c r="E10">
-        <v>0.4424752962622275</v>
+        <v>0.9773239618550722</v>
       </c>
       <c r="F10">
-        <v>0.7926254562567235</v>
+        <v>1.003847067411719</v>
       </c>
       <c r="G10">
-        <v>0.4346330990967083</v>
+        <v>1.001667525785065</v>
       </c>
       <c r="H10">
-        <v>1.036688182302873</v>
+        <v>1.00719998665971</v>
       </c>
       <c r="I10">
-        <v>0.4346330990967083</v>
+        <v>1.001667525785065</v>
       </c>
       <c r="J10">
-        <v>0.4424752962622275</v>
+        <v>0.9773239618550722</v>
       </c>
       <c r="K10">
-        <v>0.4424752962622275</v>
+        <v>0.9773239618550722</v>
       </c>
       <c r="L10">
-        <v>1.036688182302873</v>
+        <v>1.00719998665971</v>
       </c>
       <c r="M10">
-        <v>0.7356606406997904</v>
+        <v>1.004433756222388</v>
       </c>
       <c r="N10">
-        <v>0.7356606406997904</v>
+        <v>1.004433756222388</v>
       </c>
       <c r="O10">
-        <v>0.6236887788933917</v>
+        <v>1.002135847751885</v>
       </c>
       <c r="P10">
-        <v>0.6379321925539362</v>
+        <v>0.9953971580999493</v>
       </c>
       <c r="Q10">
-        <v>0.6379321925539362</v>
+        <v>0.9953971580999493</v>
       </c>
       <c r="R10">
-        <v>0.589067968481009</v>
+        <v>0.9908788590387301</v>
       </c>
       <c r="S10">
-        <v>0.589067968481009</v>
+        <v>0.9908788590387301</v>
       </c>
       <c r="T10">
-        <v>1.439566354828909</v>
+        <v>0.9995016492335633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8368195089139757</v>
+        <v>0.931090027179191</v>
       </c>
       <c r="D11">
-        <v>1.043306745641215</v>
+        <v>0.9695121302760342</v>
       </c>
       <c r="E11">
-        <v>1.430956038882582</v>
+        <v>1.114178441069082</v>
       </c>
       <c r="F11">
-        <v>1.031519453752363</v>
+        <v>1.032699900549426</v>
       </c>
       <c r="G11">
-        <v>0.8109131320555255</v>
+        <v>0.9226773065079716</v>
       </c>
       <c r="H11">
-        <v>0.9357567790996884</v>
+        <v>1.022547077055109</v>
       </c>
       <c r="I11">
-        <v>0.8109131320555255</v>
+        <v>0.9226773065079716</v>
       </c>
       <c r="J11">
-        <v>1.430956038882582</v>
+        <v>1.114178441069082</v>
       </c>
       <c r="K11">
-        <v>1.430956038882582</v>
+        <v>1.114178441069082</v>
       </c>
       <c r="L11">
-        <v>0.9357567790996884</v>
+        <v>1.022547077055109</v>
       </c>
       <c r="M11">
-        <v>0.8733349555776069</v>
+        <v>0.9726121917815402</v>
       </c>
       <c r="N11">
-        <v>0.8733349555776069</v>
+        <v>0.9726121917815402</v>
       </c>
       <c r="O11">
-        <v>0.8611631400230632</v>
+        <v>0.9587714702474238</v>
       </c>
       <c r="P11">
-        <v>1.059208650012599</v>
+        <v>1.019800941544054</v>
       </c>
       <c r="Q11">
-        <v>1.059208650012599</v>
+        <v>1.019800941544054</v>
       </c>
       <c r="R11">
-        <v>1.152145497230095</v>
+        <v>1.043395316425311</v>
       </c>
       <c r="S11">
-        <v>1.152145497230095</v>
+        <v>1.043395316425311</v>
       </c>
       <c r="T11">
-        <v>1.014878609724225</v>
+        <v>0.9987841471061357</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7795523092791034</v>
+        <v>0.3997450552805942</v>
       </c>
       <c r="D12">
-        <v>2.198129526722332</v>
+        <v>5.531231039774325</v>
       </c>
       <c r="E12">
-        <v>0.809725353601584</v>
+        <v>0.4424752962622275</v>
       </c>
       <c r="F12">
-        <v>0.9791202940526308</v>
+        <v>0.7926254562567235</v>
       </c>
       <c r="G12">
-        <v>0.9034067672934677</v>
+        <v>0.4346330990967083</v>
       </c>
       <c r="H12">
-        <v>1.078525220831579</v>
+        <v>1.036688182302873</v>
       </c>
       <c r="I12">
-        <v>0.9034067672934677</v>
+        <v>0.4346330990967083</v>
       </c>
       <c r="J12">
-        <v>0.809725353601584</v>
+        <v>0.4424752962622275</v>
       </c>
       <c r="K12">
-        <v>0.809725353601584</v>
+        <v>0.4424752962622275</v>
       </c>
       <c r="L12">
-        <v>1.078525220831579</v>
+        <v>1.036688182302873</v>
       </c>
       <c r="M12">
-        <v>0.9909659940625233</v>
+        <v>0.7356606406997904</v>
       </c>
       <c r="N12">
-        <v>0.9909659940625233</v>
+        <v>0.7356606406997904</v>
       </c>
       <c r="O12">
-        <v>0.9204947658013833</v>
+        <v>0.6236887788933917</v>
       </c>
       <c r="P12">
-        <v>0.9305524472422103</v>
+        <v>0.6379321925539362</v>
       </c>
       <c r="Q12">
-        <v>0.9305524472422103</v>
+        <v>0.6379321925539362</v>
       </c>
       <c r="R12">
-        <v>0.9003456738320537</v>
+        <v>0.589067968481009</v>
       </c>
       <c r="S12">
-        <v>0.9003456738320537</v>
+        <v>0.589067968481009</v>
       </c>
       <c r="T12">
-        <v>1.124743245296783</v>
+        <v>1.439566354828909</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.126016291139198</v>
+        <v>0.8368195089139757</v>
       </c>
       <c r="D13">
-        <v>0.6886861460431577</v>
+        <v>1.043306745641215</v>
       </c>
       <c r="E13">
-        <v>0.9970293209445963</v>
+        <v>1.430956038882582</v>
       </c>
       <c r="F13">
-        <v>0.9433328758752554</v>
+        <v>1.031519453752363</v>
       </c>
       <c r="G13">
-        <v>1.339635293903155</v>
+        <v>0.8109131320555255</v>
       </c>
       <c r="H13">
-        <v>0.9098323396228842</v>
+        <v>0.9357567790996884</v>
       </c>
       <c r="I13">
-        <v>1.339635293903155</v>
+        <v>0.8109131320555255</v>
       </c>
       <c r="J13">
-        <v>0.9970293209445963</v>
+        <v>1.430956038882582</v>
       </c>
       <c r="K13">
-        <v>0.9970293209445963</v>
+        <v>1.430956038882582</v>
       </c>
       <c r="L13">
-        <v>0.9098323396228842</v>
+        <v>0.9357567790996884</v>
       </c>
       <c r="M13">
-        <v>1.12473381676302</v>
+        <v>0.8733349555776069</v>
       </c>
       <c r="N13">
-        <v>1.12473381676302</v>
+        <v>0.8733349555776069</v>
       </c>
       <c r="O13">
-        <v>1.125161308221746</v>
+        <v>0.8611631400230632</v>
       </c>
       <c r="P13">
-        <v>1.082165651490212</v>
+        <v>1.059208650012599</v>
       </c>
       <c r="Q13">
-        <v>1.082165651490212</v>
+        <v>1.059208650012599</v>
       </c>
       <c r="R13">
-        <v>1.060881568853808</v>
+        <v>1.152145497230095</v>
       </c>
       <c r="S13">
-        <v>1.060881568853808</v>
+        <v>1.152145497230095</v>
       </c>
       <c r="T13">
-        <v>1.000755377921374</v>
+        <v>1.014878609724225</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0002563127000000003</v>
+        <v>0.7795523092791034</v>
       </c>
       <c r="D14">
-        <v>9.125768799999991</v>
+        <v>2.198129526722332</v>
       </c>
       <c r="E14">
-        <v>0.01683869900000001</v>
+        <v>0.809725353601584</v>
       </c>
       <c r="F14">
-        <v>0.5813490999999996</v>
+        <v>0.9791202940526308</v>
       </c>
       <c r="G14">
-        <v>0.0007560730099999988</v>
+        <v>0.9034067672934677</v>
       </c>
       <c r="H14">
-        <v>1.002098099999999</v>
+        <v>1.078525220831579</v>
       </c>
       <c r="I14">
-        <v>0.0007560730099999988</v>
+        <v>0.9034067672934677</v>
       </c>
       <c r="J14">
-        <v>0.01683869900000001</v>
+        <v>0.809725353601584</v>
       </c>
       <c r="K14">
-        <v>0.01683869900000001</v>
+        <v>0.809725353601584</v>
       </c>
       <c r="L14">
-        <v>1.002098099999999</v>
+        <v>1.078525220831579</v>
       </c>
       <c r="M14">
-        <v>0.5014270865049995</v>
+        <v>0.9909659940625233</v>
       </c>
       <c r="N14">
-        <v>0.5014270865049995</v>
+        <v>0.9909659940625233</v>
       </c>
       <c r="O14">
-        <v>0.334370161903333</v>
+        <v>0.9204947658013833</v>
       </c>
       <c r="P14">
-        <v>0.339897624003333</v>
+        <v>0.9305524472422103</v>
       </c>
       <c r="Q14">
-        <v>0.339897624003333</v>
+        <v>0.9305524472422103</v>
       </c>
       <c r="R14">
-        <v>0.2591328927524997</v>
+        <v>0.9003456738320537</v>
       </c>
       <c r="S14">
-        <v>0.2591328927524997</v>
+        <v>0.9003456738320537</v>
       </c>
       <c r="T14">
-        <v>1.787844514118331</v>
+        <v>1.124743245296783</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.39644956</v>
+        <v>1.126016291139198</v>
       </c>
       <c r="D15">
-        <v>0.13450162</v>
+        <v>0.6886861460431577</v>
       </c>
       <c r="E15">
-        <v>0.021602411</v>
+        <v>0.9970293209445963</v>
       </c>
       <c r="F15">
-        <v>1.340757</v>
+        <v>0.9433328758752554</v>
       </c>
       <c r="G15">
-        <v>0.031132085</v>
+        <v>1.339635293903155</v>
       </c>
       <c r="H15">
-        <v>3.0422768</v>
+        <v>0.9098323396228842</v>
       </c>
       <c r="I15">
-        <v>0.031132085</v>
+        <v>1.339635293903155</v>
       </c>
       <c r="J15">
-        <v>0.021602411</v>
+        <v>0.9970293209445963</v>
       </c>
       <c r="K15">
-        <v>0.021602411</v>
+        <v>0.9970293209445963</v>
       </c>
       <c r="L15">
-        <v>3.0422768</v>
+        <v>0.9098323396228842</v>
       </c>
       <c r="M15">
-        <v>1.5367044425</v>
+        <v>1.12473381676302</v>
       </c>
       <c r="N15">
-        <v>1.5367044425</v>
+        <v>1.12473381676302</v>
       </c>
       <c r="O15">
-        <v>1.156619481666667</v>
+        <v>1.125161308221746</v>
       </c>
       <c r="P15">
-        <v>1.031670432</v>
+        <v>1.082165651490212</v>
       </c>
       <c r="Q15">
-        <v>1.031670432</v>
+        <v>1.082165651490212</v>
       </c>
       <c r="R15">
-        <v>0.7791534267499999</v>
+        <v>1.060881568853808</v>
       </c>
       <c r="S15">
-        <v>0.7791534267499999</v>
+        <v>1.060881568853808</v>
       </c>
       <c r="T15">
-        <v>0.8277865793333333</v>
+        <v>1.000755377921374</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.05715137000000001</v>
+        <v>0.0002563127000000003</v>
       </c>
       <c r="D16">
-        <v>0.007481255500000001</v>
+        <v>9.125768799999991</v>
       </c>
       <c r="E16">
-        <v>7.6546011</v>
+        <v>0.01683869900000001</v>
       </c>
       <c r="F16">
-        <v>0.60377661</v>
+        <v>0.5813490999999996</v>
       </c>
       <c r="G16">
-        <v>0.00064866866</v>
+        <v>0.0007560730099999988</v>
       </c>
       <c r="H16">
-        <v>0.026860481</v>
+        <v>1.002098099999999</v>
       </c>
       <c r="I16">
-        <v>0.00064866866</v>
+        <v>0.0007560730099999988</v>
       </c>
       <c r="J16">
-        <v>7.6546011</v>
+        <v>0.01683869900000001</v>
       </c>
       <c r="K16">
-        <v>7.6546011</v>
+        <v>0.01683869900000001</v>
       </c>
       <c r="L16">
-        <v>0.026860481</v>
+        <v>1.002098099999999</v>
       </c>
       <c r="M16">
-        <v>0.01375457483</v>
+        <v>0.5014270865049995</v>
       </c>
       <c r="N16">
-        <v>0.01375457483</v>
+        <v>0.5014270865049995</v>
       </c>
       <c r="O16">
-        <v>0.02822017322</v>
+        <v>0.334370161903333</v>
       </c>
       <c r="P16">
-        <v>2.560703416553333</v>
+        <v>0.339897624003333</v>
       </c>
       <c r="Q16">
-        <v>2.560703416553333</v>
+        <v>0.339897624003333</v>
       </c>
       <c r="R16">
-        <v>3.834177837415</v>
+        <v>0.2591328927524997</v>
       </c>
       <c r="S16">
-        <v>3.834177837415</v>
+        <v>0.2591328927524997</v>
       </c>
       <c r="T16">
-        <v>1.391753247526667</v>
+        <v>1.787844514118331</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.3307885</v>
+        <v>0.39644956</v>
       </c>
       <c r="D17">
-        <v>0.009514487800000001</v>
+        <v>0.13450162</v>
       </c>
       <c r="E17">
-        <v>0.016795344</v>
+        <v>0.021602411</v>
       </c>
       <c r="F17">
-        <v>0.60867839</v>
+        <v>1.340757</v>
       </c>
       <c r="G17">
-        <v>0.37890006</v>
+        <v>0.031132085</v>
       </c>
       <c r="H17">
-        <v>1.2854667</v>
+        <v>3.0422768</v>
       </c>
       <c r="I17">
-        <v>0.37890006</v>
+        <v>0.031132085</v>
       </c>
       <c r="J17">
-        <v>0.016795344</v>
+        <v>0.021602411</v>
       </c>
       <c r="K17">
-        <v>0.016795344</v>
+        <v>0.021602411</v>
       </c>
       <c r="L17">
-        <v>1.2854667</v>
+        <v>3.0422768</v>
       </c>
       <c r="M17">
-        <v>0.83218338</v>
+        <v>1.5367044425</v>
       </c>
       <c r="N17">
-        <v>0.83218338</v>
+        <v>1.5367044425</v>
       </c>
       <c r="O17">
-        <v>0.9983850866666666</v>
+        <v>1.156619481666667</v>
       </c>
       <c r="P17">
-        <v>0.560387368</v>
+        <v>1.031670432</v>
       </c>
       <c r="Q17">
-        <v>0.560387368</v>
+        <v>1.031670432</v>
       </c>
       <c r="R17">
-        <v>0.424489362</v>
+        <v>0.7791534267499999</v>
       </c>
       <c r="S17">
-        <v>0.424489362</v>
+        <v>0.7791534267499999</v>
       </c>
       <c r="T17">
-        <v>0.6050239136333334</v>
+        <v>0.8277865793333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.1979767172602739</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="D18">
-        <v>0.4247746371698631</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="E18">
-        <v>2.396889205657536</v>
+        <v>7.6546011</v>
       </c>
       <c r="F18">
-        <v>1.416218868767124</v>
+        <v>0.60377661</v>
       </c>
       <c r="G18">
-        <v>0.00448124480657534</v>
+        <v>0.00064866866</v>
       </c>
       <c r="H18">
-        <v>1.264274525287671</v>
+        <v>0.026860481</v>
       </c>
       <c r="I18">
-        <v>0.00448124480657534</v>
+        <v>0.00064866866</v>
       </c>
       <c r="J18">
-        <v>2.396889205657536</v>
+        <v>7.6546011</v>
       </c>
       <c r="K18">
-        <v>2.396889205657536</v>
+        <v>7.6546011</v>
       </c>
       <c r="L18">
-        <v>1.264274525287671</v>
+        <v>0.026860481</v>
       </c>
       <c r="M18">
-        <v>0.6343778850471234</v>
+        <v>0.01375457483</v>
       </c>
       <c r="N18">
-        <v>0.6343778850471234</v>
+        <v>0.01375457483</v>
       </c>
       <c r="O18">
-        <v>0.4889108291181736</v>
+        <v>0.02822017322</v>
       </c>
       <c r="P18">
-        <v>1.221881658583928</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="Q18">
-        <v>1.221881658583927</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="R18">
-        <v>1.51563354535233</v>
+        <v>3.834177837415</v>
       </c>
       <c r="S18">
-        <v>1.51563354535233</v>
+        <v>3.834177837415</v>
       </c>
       <c r="T18">
-        <v>0.9507691998248405</v>
+        <v>1.391753247526667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.090353289768421</v>
+        <v>1.3307885</v>
       </c>
       <c r="D19">
-        <v>1.267895143540527</v>
+        <v>0.009514487800000001</v>
       </c>
       <c r="E19">
-        <v>1.127957539631579</v>
+        <v>0.016795344</v>
       </c>
       <c r="F19">
-        <v>0.8929287299999999</v>
+        <v>0.60867839</v>
       </c>
       <c r="G19">
-        <v>0.1946733262157895</v>
+        <v>0.37890006</v>
       </c>
       <c r="H19">
-        <v>1.100241909421053</v>
+        <v>1.2854667</v>
       </c>
       <c r="I19">
-        <v>0.1946733262157895</v>
+        <v>0.37890006</v>
       </c>
       <c r="J19">
-        <v>1.127957539631579</v>
+        <v>0.016795344</v>
       </c>
       <c r="K19">
-        <v>1.127957539631579</v>
+        <v>0.016795344</v>
       </c>
       <c r="L19">
-        <v>1.100241909421053</v>
+        <v>1.2854667</v>
       </c>
       <c r="M19">
-        <v>0.6474576178184211</v>
+        <v>0.83218338</v>
       </c>
       <c r="N19">
-        <v>0.6474576178184211</v>
+        <v>0.83218338</v>
       </c>
       <c r="O19">
-        <v>0.7950895084684211</v>
+        <v>0.9983850866666666</v>
       </c>
       <c r="P19">
-        <v>0.8076242584228072</v>
+        <v>0.560387368</v>
       </c>
       <c r="Q19">
-        <v>0.8076242584228072</v>
+        <v>0.560387368</v>
       </c>
       <c r="R19">
-        <v>0.8877075787250002</v>
+        <v>0.424489362</v>
       </c>
       <c r="S19">
-        <v>0.8877075787250002</v>
+        <v>0.424489362</v>
       </c>
       <c r="T19">
-        <v>0.9456749897628948</v>
+        <v>0.6050239136333334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.5585022057042105</v>
+        <v>0.1979767172602739</v>
       </c>
       <c r="D20">
-        <v>2.815567712421053</v>
+        <v>0.4247746371698631</v>
       </c>
       <c r="E20">
-        <v>0.8653526162999999</v>
+        <v>2.396889205657536</v>
       </c>
       <c r="F20">
-        <v>0.8357901636842106</v>
+        <v>1.416218868767124</v>
       </c>
       <c r="G20">
-        <v>1.715860736600526</v>
+        <v>0.00448124480657534</v>
       </c>
       <c r="H20">
-        <v>1.209510174210526</v>
+        <v>1.264274525287671</v>
       </c>
       <c r="I20">
-        <v>1.715860736600526</v>
+        <v>0.00448124480657534</v>
       </c>
       <c r="J20">
-        <v>0.8653526162999999</v>
+        <v>2.396889205657536</v>
       </c>
       <c r="K20">
-        <v>0.8653526162999999</v>
+        <v>2.396889205657536</v>
       </c>
       <c r="L20">
-        <v>1.209510174210526</v>
+        <v>1.264274525287671</v>
       </c>
       <c r="M20">
-        <v>1.462685455405526</v>
+        <v>0.6343778850471234</v>
       </c>
       <c r="N20">
-        <v>1.462685455405526</v>
+        <v>0.6343778850471234</v>
       </c>
       <c r="O20">
-        <v>1.161291038838421</v>
+        <v>0.4889108291181736</v>
       </c>
       <c r="P20">
-        <v>1.263574509037017</v>
+        <v>1.221881658583928</v>
       </c>
       <c r="Q20">
-        <v>1.263574509037017</v>
+        <v>1.221881658583927</v>
       </c>
       <c r="R20">
-        <v>1.164019035852763</v>
+        <v>1.51563354535233</v>
       </c>
       <c r="S20">
-        <v>1.164019035852763</v>
+        <v>1.51563354535233</v>
       </c>
       <c r="T20">
-        <v>1.333430601486755</v>
+        <v>0.9507691998248405</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.521176470293142</v>
+        <v>1.090353289768421</v>
       </c>
       <c r="D21">
-        <v>0.05789578805400999</v>
+        <v>1.267895143540527</v>
       </c>
       <c r="E21">
-        <v>0.8792445411765465</v>
+        <v>1.127957539631579</v>
       </c>
       <c r="F21">
-        <v>0.8088994013775033</v>
+        <v>0.8929287299999999</v>
       </c>
       <c r="G21">
-        <v>1.119667219287633</v>
+        <v>0.1946733262157895</v>
       </c>
       <c r="H21">
-        <v>0.7809792423425447</v>
+        <v>1.100241909421053</v>
       </c>
       <c r="I21">
-        <v>1.119667219287633</v>
+        <v>0.1946733262157895</v>
       </c>
       <c r="J21">
-        <v>0.8792445411765465</v>
+        <v>1.127957539631579</v>
       </c>
       <c r="K21">
-        <v>0.8792445411765465</v>
+        <v>1.127957539631579</v>
       </c>
       <c r="L21">
-        <v>0.7809792423425447</v>
+        <v>1.100241909421053</v>
       </c>
       <c r="M21">
-        <v>0.9503232308150886</v>
+        <v>0.6474576178184211</v>
       </c>
       <c r="N21">
-        <v>0.9503232308150886</v>
+        <v>0.6474576178184211</v>
       </c>
       <c r="O21">
-        <v>1.14060764397444</v>
+        <v>0.7950895084684211</v>
       </c>
       <c r="P21">
-        <v>0.926630334268908</v>
+        <v>0.8076242584228072</v>
       </c>
       <c r="Q21">
-        <v>0.926630334268908</v>
+        <v>0.8076242584228072</v>
       </c>
       <c r="R21">
-        <v>0.9147838859958176</v>
+        <v>0.8877075787250002</v>
       </c>
       <c r="S21">
-        <v>0.9147838859958176</v>
+        <v>0.8877075787250002</v>
       </c>
       <c r="T21">
-        <v>0.8613104437552299</v>
+        <v>0.9456749897628948</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9972955378836347</v>
+        <v>0.5585022057042105</v>
       </c>
       <c r="D22">
-        <v>0.8260958226737389</v>
+        <v>2.815567712421053</v>
       </c>
       <c r="E22">
-        <v>1.086395609963157</v>
+        <v>0.8653526162999999</v>
       </c>
       <c r="F22">
-        <v>0.9654369733219197</v>
+        <v>0.8357901636842106</v>
       </c>
       <c r="G22">
-        <v>2.080174568926314</v>
+        <v>1.715860736600526</v>
       </c>
       <c r="H22">
-        <v>0.9445203895218965</v>
+        <v>1.209510174210526</v>
       </c>
       <c r="I22">
-        <v>2.080174568926314</v>
+        <v>1.715860736600526</v>
       </c>
       <c r="J22">
-        <v>1.086395609963157</v>
+        <v>0.8653526162999999</v>
       </c>
       <c r="K22">
-        <v>1.086395609963157</v>
+        <v>0.8653526162999999</v>
       </c>
       <c r="L22">
-        <v>0.9445203895218965</v>
+        <v>1.209510174210526</v>
       </c>
       <c r="M22">
-        <v>1.512347479224105</v>
+        <v>1.462685455405526</v>
       </c>
       <c r="N22">
-        <v>1.512347479224105</v>
+        <v>1.462685455405526</v>
       </c>
       <c r="O22">
-        <v>1.340663498777282</v>
+        <v>1.161291038838421</v>
       </c>
       <c r="P22">
-        <v>1.370363522803789</v>
+        <v>1.263574509037017</v>
       </c>
       <c r="Q22">
-        <v>1.370363522803789</v>
+        <v>1.263574509037017</v>
       </c>
       <c r="R22">
-        <v>1.299371544593631</v>
+        <v>1.164019035852763</v>
       </c>
       <c r="S22">
-        <v>1.299371544593631</v>
+        <v>1.164019035852763</v>
       </c>
       <c r="T22">
-        <v>1.14998648371511</v>
+        <v>1.333430601486755</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.059500420431431</v>
+        <v>1.521176470293142</v>
       </c>
       <c r="D23">
-        <v>0.113304783278639</v>
+        <v>0.05789578805400999</v>
       </c>
       <c r="E23">
-        <v>1.641395764440468</v>
+        <v>0.8792445411765465</v>
       </c>
       <c r="F23">
-        <v>0.9548772783263109</v>
+        <v>0.8088994013775033</v>
       </c>
       <c r="G23">
-        <v>0.973889382741449</v>
+        <v>1.119667219287633</v>
       </c>
       <c r="H23">
-        <v>0.5353156617967508</v>
+        <v>0.7809792423425447</v>
       </c>
       <c r="I23">
-        <v>0.973889382741449</v>
+        <v>1.119667219287633</v>
       </c>
       <c r="J23">
-        <v>1.641395764440468</v>
+        <v>0.8792445411765465</v>
       </c>
       <c r="K23">
-        <v>1.641395764440468</v>
+        <v>0.8792445411765465</v>
       </c>
       <c r="L23">
-        <v>0.5353156617967508</v>
+        <v>0.7809792423425447</v>
       </c>
       <c r="M23">
-        <v>0.7546025222691</v>
+        <v>0.9503232308150886</v>
       </c>
       <c r="N23">
-        <v>0.7546025222691</v>
+        <v>0.9503232308150886</v>
       </c>
       <c r="O23">
-        <v>0.8562351549898769</v>
+        <v>1.14060764397444</v>
       </c>
       <c r="P23">
-        <v>1.050200269659556</v>
+        <v>0.926630334268908</v>
       </c>
       <c r="Q23">
-        <v>1.050200269659556</v>
+        <v>0.926630334268908</v>
       </c>
       <c r="R23">
-        <v>1.197999143354784</v>
+        <v>0.9147838859958176</v>
       </c>
       <c r="S23">
-        <v>1.197999143354784</v>
+        <v>0.9147838859958176</v>
       </c>
       <c r="T23">
-        <v>0.8797138818358414</v>
+        <v>0.8613104437552299</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.071108989185448</v>
+        <v>0.9972955378836347</v>
       </c>
       <c r="D24">
-        <v>1.023986395512487</v>
+        <v>0.8260958226737389</v>
       </c>
       <c r="E24">
-        <v>0.6424090400447208</v>
+        <v>1.086395609963157</v>
       </c>
       <c r="F24">
-        <v>1.021615997070116</v>
+        <v>0.9654369733219197</v>
       </c>
       <c r="G24">
-        <v>1.182788715270982</v>
+        <v>2.080174568926314</v>
       </c>
       <c r="H24">
-        <v>1.305247984152944</v>
+        <v>0.9445203895218965</v>
       </c>
       <c r="I24">
-        <v>1.182788715270982</v>
+        <v>2.080174568926314</v>
       </c>
       <c r="J24">
-        <v>0.6424090400447208</v>
+        <v>1.086395609963157</v>
       </c>
       <c r="K24">
-        <v>0.6424090400447208</v>
+        <v>1.086395609963157</v>
       </c>
       <c r="L24">
-        <v>1.305247984152944</v>
+        <v>0.9445203895218965</v>
       </c>
       <c r="M24">
-        <v>1.244018349711963</v>
+        <v>1.512347479224105</v>
       </c>
       <c r="N24">
-        <v>1.244018349711963</v>
+        <v>1.512347479224105</v>
       </c>
       <c r="O24">
-        <v>1.186381896203125</v>
+        <v>1.340663498777282</v>
       </c>
       <c r="P24">
-        <v>1.043481913156216</v>
+        <v>1.370363522803789</v>
       </c>
       <c r="Q24">
-        <v>1.043481913156216</v>
+        <v>1.370363522803789</v>
       </c>
       <c r="R24">
-        <v>0.9432136948783419</v>
+        <v>1.299371544593631</v>
       </c>
       <c r="S24">
-        <v>0.9432136948783419</v>
+        <v>1.299371544593631</v>
       </c>
       <c r="T24">
-        <v>1.04119285353945</v>
+        <v>1.14998648371511</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9155359903802168</v>
+        <v>1.059500420431431</v>
       </c>
       <c r="D25">
-        <v>0.3052329403744581</v>
+        <v>0.113304783278639</v>
       </c>
       <c r="E25">
-        <v>1.465704297658399</v>
+        <v>1.641395764440468</v>
       </c>
       <c r="F25">
-        <v>1.159692609874603</v>
+        <v>0.9548772783263109</v>
       </c>
       <c r="G25">
-        <v>0.4734938094456579</v>
+        <v>0.973889382741449</v>
       </c>
       <c r="H25">
-        <v>0.8827501878366049</v>
+        <v>0.5353156617967508</v>
       </c>
       <c r="I25">
-        <v>0.4734938094456579</v>
+        <v>0.973889382741449</v>
       </c>
       <c r="J25">
-        <v>1.465704297658399</v>
+        <v>1.641395764440468</v>
       </c>
       <c r="K25">
-        <v>1.465704297658399</v>
+        <v>1.641395764440468</v>
       </c>
       <c r="L25">
-        <v>0.8827501878366049</v>
+        <v>0.5353156617967508</v>
       </c>
       <c r="M25">
-        <v>0.6781219986411313</v>
+        <v>0.7546025222691</v>
       </c>
       <c r="N25">
-        <v>0.6781219986411313</v>
+        <v>0.7546025222691</v>
       </c>
       <c r="O25">
-        <v>0.7572599958874932</v>
+        <v>0.8562351549898769</v>
       </c>
       <c r="P25">
-        <v>0.9406494316468873</v>
+        <v>1.050200269659556</v>
       </c>
       <c r="Q25">
-        <v>0.9406494316468873</v>
+        <v>1.050200269659556</v>
       </c>
       <c r="R25">
-        <v>1.071913148149765</v>
+        <v>1.197999143354784</v>
       </c>
       <c r="S25">
-        <v>1.071913148149765</v>
+        <v>1.197999143354784</v>
       </c>
       <c r="T25">
-        <v>0.8670683059283233</v>
+        <v>0.8797138818358414</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.035344010854263</v>
+        <v>1.071108989185448</v>
       </c>
       <c r="D26">
-        <v>1.486652146093182</v>
+        <v>1.023986395512487</v>
       </c>
       <c r="E26">
-        <v>0.8392472005422116</v>
+        <v>0.6424090400447208</v>
       </c>
       <c r="F26">
-        <v>0.9069182891216303</v>
+        <v>1.021615997070116</v>
       </c>
       <c r="G26">
-        <v>1.164466671418582</v>
+        <v>1.182788715270982</v>
       </c>
       <c r="H26">
-        <v>0.9874912933711724</v>
+        <v>1.305247984152944</v>
       </c>
       <c r="I26">
-        <v>1.164466671418582</v>
+        <v>1.182788715270982</v>
       </c>
       <c r="J26">
-        <v>0.8392472005422116</v>
+        <v>0.6424090400447208</v>
       </c>
       <c r="K26">
-        <v>0.8392472005422116</v>
+        <v>0.6424090400447208</v>
       </c>
       <c r="L26">
-        <v>0.9874912933711724</v>
+        <v>1.305247984152944</v>
       </c>
       <c r="M26">
-        <v>1.075978982394877</v>
+        <v>1.244018349711963</v>
       </c>
       <c r="N26">
-        <v>1.075978982394877</v>
+        <v>1.244018349711963</v>
       </c>
       <c r="O26">
-        <v>1.062433991881339</v>
+        <v>1.186381896203125</v>
       </c>
       <c r="P26">
-        <v>0.9970683884439886</v>
+        <v>1.043481913156216</v>
       </c>
       <c r="Q26">
-        <v>0.9970683884439886</v>
+        <v>1.043481913156216</v>
       </c>
       <c r="R26">
-        <v>0.9576130914685443</v>
+        <v>0.9432136948783419</v>
       </c>
       <c r="S26">
-        <v>0.9576130914685443</v>
+        <v>0.9432136948783419</v>
       </c>
       <c r="T26">
-        <v>1.070019935233507</v>
+        <v>1.04119285353945</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.100621213723634</v>
+        <v>0.9155359903802168</v>
       </c>
       <c r="D27">
-        <v>1.519857578788818</v>
+        <v>0.3052329403744581</v>
       </c>
       <c r="E27">
-        <v>1.108812494377071</v>
+        <v>1.465704297658399</v>
       </c>
       <c r="F27">
-        <v>0.8838715130887823</v>
+        <v>1.159692609874603</v>
       </c>
       <c r="G27">
-        <v>0.5514475846775762</v>
+        <v>0.4734938094456579</v>
       </c>
       <c r="H27">
-        <v>0.9612001211401976</v>
+        <v>0.8827501878366049</v>
       </c>
       <c r="I27">
-        <v>0.5514475846775762</v>
+        <v>0.4734938094456579</v>
       </c>
       <c r="J27">
-        <v>1.108812494377071</v>
+        <v>1.465704297658399</v>
       </c>
       <c r="K27">
-        <v>1.108812494377071</v>
+        <v>1.465704297658399</v>
       </c>
       <c r="L27">
-        <v>0.9612001211401976</v>
+        <v>0.8827501878366049</v>
       </c>
       <c r="M27">
-        <v>0.7563238529088869</v>
+        <v>0.6781219986411313</v>
       </c>
       <c r="N27">
-        <v>0.7563238529088869</v>
+        <v>0.6781219986411313</v>
       </c>
       <c r="O27">
-        <v>0.8710896398471357</v>
+        <v>0.7572599958874932</v>
       </c>
       <c r="P27">
-        <v>0.8738200667316152</v>
+        <v>0.9406494316468873</v>
       </c>
       <c r="Q27">
-        <v>0.8738200667316151</v>
+        <v>0.9406494316468873</v>
       </c>
       <c r="R27">
-        <v>0.9325681736429792</v>
+        <v>1.071913148149765</v>
       </c>
       <c r="S27">
-        <v>0.9325681736429792</v>
+        <v>1.071913148149765</v>
       </c>
       <c r="T27">
-        <v>1.02096841763268</v>
+        <v>0.8670683059283233</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.7752333278867831</v>
+        <v>1.035344010854263</v>
       </c>
       <c r="D28">
-        <v>0.975934337443959</v>
+        <v>1.486652146093182</v>
       </c>
       <c r="E28">
-        <v>1.655077188126614</v>
+        <v>0.8392472005422116</v>
       </c>
       <c r="F28">
-        <v>0.8915767730993511</v>
+        <v>0.9069182891216303</v>
       </c>
       <c r="G28">
-        <v>1.251981855150252</v>
+        <v>1.164466671418582</v>
       </c>
       <c r="H28">
-        <v>0.7419847322884305</v>
+        <v>0.9874912933711724</v>
       </c>
       <c r="I28">
-        <v>1.251981855150252</v>
+        <v>1.164466671418582</v>
       </c>
       <c r="J28">
-        <v>1.655077188126614</v>
+        <v>0.8392472005422116</v>
       </c>
       <c r="K28">
-        <v>1.655077188126614</v>
+        <v>0.8392472005422116</v>
       </c>
       <c r="L28">
-        <v>0.7419847322884305</v>
+        <v>0.9874912933711724</v>
       </c>
       <c r="M28">
-        <v>0.9969832937193415</v>
+        <v>1.075978982394877</v>
       </c>
       <c r="N28">
-        <v>0.9969832937193415</v>
+        <v>1.075978982394877</v>
       </c>
       <c r="O28">
-        <v>0.923066638441822</v>
+        <v>1.062433991881339</v>
       </c>
       <c r="P28">
-        <v>1.216347925188432</v>
+        <v>0.9970683884439886</v>
       </c>
       <c r="Q28">
-        <v>1.216347925188432</v>
+        <v>0.9970683884439886</v>
       </c>
       <c r="R28">
-        <v>1.326030240922977</v>
+        <v>0.9576130914685443</v>
       </c>
       <c r="S28">
-        <v>1.326030240922977</v>
+        <v>0.9576130914685443</v>
       </c>
       <c r="T28">
-        <v>1.048631368999231</v>
+        <v>1.070019935233507</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.100621213723634</v>
+      </c>
+      <c r="D29">
+        <v>1.519857578788818</v>
+      </c>
+      <c r="E29">
+        <v>1.108812494377071</v>
+      </c>
+      <c r="F29">
+        <v>0.8838715130887823</v>
+      </c>
+      <c r="G29">
+        <v>0.5514475846775762</v>
+      </c>
+      <c r="H29">
+        <v>0.9612001211401976</v>
+      </c>
+      <c r="I29">
+        <v>0.5514475846775762</v>
+      </c>
+      <c r="J29">
+        <v>1.108812494377071</v>
+      </c>
+      <c r="K29">
+        <v>1.108812494377071</v>
+      </c>
+      <c r="L29">
+        <v>0.9612001211401976</v>
+      </c>
+      <c r="M29">
+        <v>0.7563238529088869</v>
+      </c>
+      <c r="N29">
+        <v>0.7563238529088869</v>
+      </c>
+      <c r="O29">
+        <v>0.8710896398471357</v>
+      </c>
+      <c r="P29">
+        <v>0.8738200667316152</v>
+      </c>
+      <c r="Q29">
+        <v>0.8738200667316151</v>
+      </c>
+      <c r="R29">
+        <v>0.9325681736429792</v>
+      </c>
+      <c r="S29">
+        <v>0.9325681736429792</v>
+      </c>
+      <c r="T29">
+        <v>1.02096841763268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.7752333278867831</v>
+      </c>
+      <c r="D30">
+        <v>0.975934337443959</v>
+      </c>
+      <c r="E30">
+        <v>1.655077188126614</v>
+      </c>
+      <c r="F30">
+        <v>0.8915767730993511</v>
+      </c>
+      <c r="G30">
+        <v>1.251981855150252</v>
+      </c>
+      <c r="H30">
+        <v>0.7419847322884305</v>
+      </c>
+      <c r="I30">
+        <v>1.251981855150252</v>
+      </c>
+      <c r="J30">
+        <v>1.655077188126614</v>
+      </c>
+      <c r="K30">
+        <v>1.655077188126614</v>
+      </c>
+      <c r="L30">
+        <v>0.7419847322884305</v>
+      </c>
+      <c r="M30">
+        <v>0.9969832937193415</v>
+      </c>
+      <c r="N30">
+        <v>0.9969832937193415</v>
+      </c>
+      <c r="O30">
+        <v>0.923066638441822</v>
+      </c>
+      <c r="P30">
+        <v>1.216347925188432</v>
+      </c>
+      <c r="Q30">
+        <v>1.216347925188432</v>
+      </c>
+      <c r="R30">
+        <v>1.326030240922977</v>
+      </c>
+      <c r="S30">
+        <v>1.326030240922977</v>
+      </c>
+      <c r="T30">
+        <v>1.048631368999231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.033914472868219</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.03954048983561582</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.536876749200917</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.8117648303290737</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.2854213885787953</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.143983236174824</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.2854213885787953</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.536876749200917</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.536876749200917</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.143983236174824</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.7147023123768095</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.7147023123768095</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.821106365873946</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9887604579848454</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9887604579848454</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.125789530788863</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.125789530788863</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.8085835278312409</v>
       </c>
     </row>
